--- a/datasets/validate_primer_express.xlsx
+++ b/datasets/validate_primer_express.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xkvama\Desktop\py\helper_functions\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09407D5-A573-4E2A-9DC9-B7AB5DE7CB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB937F-B16D-43D1-98F4-B3DC68B8B9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C8F2FE9-4EA4-4A12-9BF3-F271196AD33E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>oligo</t>
   </si>
@@ -667,13 +666,22 @@
   </si>
   <si>
     <t>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT</t>
+  </si>
+  <si>
+    <t>oligo_mgb</t>
+  </si>
+  <si>
+    <t>g_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +694,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -706,26 +722,37 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,55 +1099,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E11871F-674E-4BE5-9A72-266CCE71020B}">
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:F267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143:B267"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="1" max="2" width="58.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT(A2,"[MGB]")</f>
+        <v>AATTAAATTA[MGB]</v>
+      </c>
+      <c r="C2">
+        <v>0.4</v>
+      </c>
+      <c r="D2">
+        <v>44</v>
+      </c>
+      <c r="E2">
         <f>LEN(A2)</f>
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>0.4</v>
-      </c>
-      <c r="D2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="2">
+        <f>(2 * LEN(A2) - LEN(SUBSTITUTE(A2, "G","")) - LEN(SUBSTITUTE(A2, "C",""))) / LEN(A2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">LEN(A3)</f>
-        <v>11</v>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">_xlfn.CONCAT(A3,"[MGB]")</f>
+        <v>TAATATTTATT[MGB]</v>
       </c>
       <c r="C3">
         <v>2.4</v>
@@ -1128,14 +1170,22 @@
       <c r="D3">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>LEN(A3)</f>
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F66" si="1">(2 * LEN(A3) - LEN(SUBSTITUTE(A3, "G","")) - LEN(SUBSTITUTE(A3, "C",""))) / LEN(A3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>TTTAATTTATTA[MGB]</v>
       </c>
       <c r="C4">
         <v>10.7</v>
@@ -1143,14 +1193,22 @@
       <c r="D4">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f>LEN(A4)</f>
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>TTAATATTTAAAA[MGB]</v>
       </c>
       <c r="C5">
         <v>16.2</v>
@@ -1158,14 +1216,22 @@
       <c r="D5">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>LEN(A5)</f>
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>TTTTATATATAAAA[MGB]</v>
       </c>
       <c r="C6">
         <v>17.100000000000001</v>
@@ -1173,14 +1239,22 @@
       <c r="D6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f>LEN(A6)</f>
+        <v>14</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>AATAATAAATTATAT[MGB]</v>
       </c>
       <c r="C7">
         <v>18.899999999999999</v>
@@ -1188,14 +1262,22 @@
       <c r="D7">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f>LEN(A7)</f>
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>AAATTAATTTTAATTA[MGB]</v>
       </c>
       <c r="C8">
         <v>27.6</v>
@@ -1203,14 +1285,22 @@
       <c r="D8">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f>LEN(A8)</f>
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>TAATTTAATATTTATTT[MGB]</v>
       </c>
       <c r="C9">
         <v>27.8</v>
@@ -1218,14 +1308,22 @@
       <c r="D9">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f>LEN(A9)</f>
+        <v>17</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>TATTTTTATTATTTTAAA[MGB]</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -1233,14 +1331,22 @@
       <c r="D10">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f>LEN(A10)</f>
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>AATATATTAAATTTTATAT[MGB]</v>
       </c>
       <c r="C11">
         <v>29.9</v>
@@ -1248,14 +1354,22 @@
       <c r="D11">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f>LEN(A11)</f>
+        <v>19</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>TATTATTATTTAATATTATT[MGB]</v>
       </c>
       <c r="C12">
         <v>31</v>
@@ -1263,14 +1377,22 @@
       <c r="D12">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f>LEN(A12)</f>
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>ATTATAAAATAAATAATATTA[MGB]</v>
       </c>
       <c r="C13">
         <v>33.700000000000003</v>
@@ -1278,14 +1400,22 @@
       <c r="D13">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f>LEN(A13)</f>
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>AAATTATATAATATTAATTTAA[MGB]</v>
       </c>
       <c r="C14">
         <v>36</v>
@@ -1293,14 +1423,22 @@
       <c r="D14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f>LEN(A14)</f>
+        <v>22</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>TTTATATATTATTTATTATTATA[MGB]</v>
       </c>
       <c r="C15">
         <v>34.5</v>
@@ -1308,14 +1446,22 @@
       <c r="D15">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f>LEN(A15)</f>
+        <v>23</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>TTATTAATTTATTATATATTATTT[MGB]</v>
       </c>
       <c r="C16">
         <v>38</v>
@@ -1323,14 +1469,22 @@
       <c r="D16">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f>LEN(A16)</f>
+        <v>24</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>TTTATTATAAAAAAATATTATTTAT[MGB]</v>
       </c>
       <c r="C17">
         <v>42</v>
@@ -1338,14 +1492,22 @@
       <c r="D17">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f>LEN(A17)</f>
+        <v>25</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>AATATATAAAATATATAAATTTATTT[MGB]</v>
       </c>
       <c r="C18">
         <v>40.9</v>
@@ -1353,14 +1515,22 @@
       <c r="D18">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f>LEN(A18)</f>
+        <v>26</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>TTTTTATTATTTATTTTATTTTTATTT[MGB]</v>
       </c>
       <c r="C19">
         <v>47</v>
@@ -1368,14 +1538,22 @@
       <c r="D19">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f>LEN(A19)</f>
+        <v>27</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>TTTTATTATATATTATTTTTATTTAAAA[MGB]</v>
       </c>
       <c r="C20">
         <v>45.6</v>
@@ -1383,14 +1561,22 @@
       <c r="D20">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f>LEN(A20)</f>
+        <v>28</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>AAATAAATTATAAAAAATTAAAATAAAAA[MGB]</v>
       </c>
       <c r="C21">
         <v>49.6</v>
@@ -1398,14 +1584,22 @@
       <c r="D21">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f>LEN(A21)</f>
+        <v>29</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>ATATTTTTTATTTTTTTTTTTATATAATTT[MGB]</v>
       </c>
       <c r="C22">
         <v>50.1</v>
@@ -1413,14 +1607,22 @@
       <c r="D22">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f>LEN(A22)</f>
+        <v>30</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>AATTTAAAATATAATTATATTATATTATTAT[MGB]</v>
       </c>
       <c r="C23">
         <v>44.9</v>
@@ -1428,14 +1630,22 @@
       <c r="D23">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f>LEN(A23)</f>
+        <v>31</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>TTTATTATATATTATATTATTATATTATATTA[MGB]</v>
       </c>
       <c r="C24">
         <v>42.7</v>
@@ -1443,14 +1653,22 @@
       <c r="D24">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f>LEN(A24)</f>
+        <v>32</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>TTTTATTTATTAAAATTTATTATTTATATTATA[MGB]</v>
       </c>
       <c r="C25">
         <v>48.6</v>
@@ -1458,14 +1676,22 @@
       <c r="D25">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f>LEN(A25)</f>
+        <v>33</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>TTTTATTATTATTATATTATTATATAAAATATTA[MGB]</v>
       </c>
       <c r="C26">
         <v>46.8</v>
@@ -1473,14 +1699,22 @@
       <c r="D26">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f>LEN(A26)</f>
+        <v>34</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>TTTTTATTATAAAAAATAAATTTATTTTTTTAAAA[MGB]</v>
       </c>
       <c r="C27">
         <v>54.8</v>
@@ -1488,14 +1722,22 @@
       <c r="D27">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f>LEN(A27)</f>
+        <v>35</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>AAATATTTAATATTAAATATTTAAAATTTAATTAAT[MGB]</v>
       </c>
       <c r="C28">
         <v>52</v>
@@ -1503,14 +1745,22 @@
       <c r="D28">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f>LEN(A28)</f>
+        <v>36</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>TTTAATTATTTAAATATTTAAAATATTTATTTAAAAT[MGB]</v>
       </c>
       <c r="C29">
         <v>53.4</v>
@@ -1518,14 +1768,22 @@
       <c r="D29">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f>LEN(A29)</f>
+        <v>37</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>TTTTTAATTATTTTAATTTTTATAAAAATTTAATTATT[MGB]</v>
       </c>
       <c r="C30">
         <v>55.5</v>
@@ -1533,14 +1791,22 @@
       <c r="D30">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <f>LEN(A30)</f>
+        <v>38</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>AATTTAAATTTTTTTAATTATTATTTATTTTTATAAAAA[MGB]</v>
       </c>
       <c r="C31">
         <v>56.2</v>
@@ -1548,14 +1814,22 @@
       <c r="D31">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f>LEN(A31)</f>
+        <v>39</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>TTTATATTTTATAATATTTTATAAAATATAAAATTATTAA[MGB]</v>
       </c>
       <c r="C32">
         <v>52.7</v>
@@ -1563,14 +1837,22 @@
       <c r="D32">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f>LEN(A32)</f>
+        <v>40</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>AACAAGACGT[MGB]</v>
       </c>
       <c r="C33">
         <v>9.1999999999999993</v>
@@ -1578,14 +1860,22 @@
       <c r="D33">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f>LEN(A33)</f>
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>GGTTCTCGTT[MGB]</v>
       </c>
       <c r="C34">
         <v>14.7</v>
@@ -1593,14 +1883,22 @@
       <c r="D34">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f>LEN(A34)</f>
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>TGTCTCATAAT[MGB]</v>
       </c>
       <c r="C35">
         <v>5.6</v>
@@ -1608,14 +1906,22 @@
       <c r="D35">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f>LEN(A35)</f>
+        <v>11</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>GCCTGACTTAC[MGB]</v>
       </c>
       <c r="C36">
         <v>16.2</v>
@@ -1623,14 +1929,22 @@
       <c r="D36">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f>LEN(A36)</f>
+        <v>11</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>GTGAGATTGAT[MGB]</v>
       </c>
       <c r="C37">
         <v>8.4</v>
@@ -1638,14 +1952,22 @@
       <c r="D37">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f>LEN(A37)</f>
+        <v>11</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>TGGAGAGCAGCA[MGB]</v>
       </c>
       <c r="C38">
         <v>33.5</v>
@@ -1653,14 +1975,22 @@
       <c r="D38">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f>LEN(A38)</f>
+        <v>12</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>CTATGTGTTCCGC[MGB]</v>
       </c>
       <c r="C39">
         <v>32.9</v>
@@ -1668,14 +1998,22 @@
       <c r="D39">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f>LEN(A39)</f>
+        <v>13</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>AGAATCAACAACT[MGB]</v>
       </c>
       <c r="C40">
         <v>21.1</v>
@@ -1683,14 +2021,22 @@
       <c r="D40">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f>LEN(A40)</f>
+        <v>13</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>CCAATGTACACTT[MGB]</v>
       </c>
       <c r="C41">
         <v>23.3</v>
@@ -1698,14 +2044,22 @@
       <c r="D41">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f>LEN(A41)</f>
+        <v>13</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>TGTACAAGTAACCT[MGB]</v>
       </c>
       <c r="C42">
         <v>23.6</v>
@@ -1713,14 +2067,22 @@
       <c r="D42">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f>LEN(A42)</f>
+        <v>14</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>AAATAGCAGATGTA[MGB]</v>
       </c>
       <c r="C43">
         <v>24.9</v>
@@ -1728,14 +2090,22 @@
       <c r="D43">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f>LEN(A43)</f>
+        <v>14</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>ACGGCCACGCCCAC[MGB]</v>
       </c>
       <c r="C44">
         <v>56.7</v>
@@ -1743,14 +2113,22 @@
       <c r="D44">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f>LEN(A44)</f>
+        <v>14</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>GGGATATTACGTTAC[MGB]</v>
       </c>
       <c r="C45">
         <v>31.6</v>
@@ -1758,14 +2136,22 @@
       <c r="D45">
         <v>59</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f>LEN(A45)</f>
+        <v>15</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>CGACGCACGTAGGCA[MGB]</v>
       </c>
       <c r="C46">
         <v>52.5</v>
@@ -1773,14 +2159,22 @@
       <c r="D46">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f>LEN(A46)</f>
+        <v>15</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>ACTACCTAAGATCTAC[MGB]</v>
       </c>
       <c r="C47">
         <v>25.8</v>
@@ -1788,14 +2182,22 @@
       <c r="D47">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f>LEN(A47)</f>
+        <v>16</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>CAATGGCGCGTCGTGAA[MGB]</v>
       </c>
       <c r="C48">
         <v>59.9</v>
@@ -1803,14 +2205,22 @@
       <c r="D48">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f>LEN(A48)</f>
+        <v>17</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>TGTGTTAATGGAACAGA[MGB]</v>
       </c>
       <c r="C49">
         <v>40.1</v>
@@ -1818,14 +2228,22 @@
       <c r="D49">
         <v>64</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f>LEN(A49)</f>
+        <v>17</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>CGACGCTTCTTCTCCTG[MGB]</v>
       </c>
       <c r="C50">
         <v>51.2</v>
@@ -1833,14 +2251,22 @@
       <c r="D50">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <f>LEN(A50)</f>
+        <v>17</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>TAGCAACACTGGCGCGA[MGB]</v>
       </c>
       <c r="C51">
         <v>57.1</v>
@@ -1848,14 +2274,22 @@
       <c r="D51">
         <v>68</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <f>LEN(A51)</f>
+        <v>17</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>TCGTCATAAAACCTTTCT[MGB]</v>
       </c>
       <c r="C52">
         <v>43.8</v>
@@ -1863,14 +2297,22 @@
       <c r="D52">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f>LEN(A52)</f>
+        <v>18</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>TCAGTGCTGGTGTGATAA[MGB]</v>
       </c>
       <c r="C53">
         <v>46.7</v>
@@ -1878,14 +2320,22 @@
       <c r="D53">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <f>LEN(A53)</f>
+        <v>18</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>CACACTGATTAATAAGGA[MGB]</v>
       </c>
       <c r="C54">
         <v>39</v>
@@ -1893,14 +2343,22 @@
       <c r="D54">
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <f>LEN(A54)</f>
+        <v>18</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>CGTAGATCCTTTTTTTCA[MGB]</v>
       </c>
       <c r="C55">
         <v>44.7</v>
@@ -1908,14 +2366,22 @@
       <c r="D55">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <f>LEN(A55)</f>
+        <v>18</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>CTGATAGATGGTGACTAGC[MGB]</v>
       </c>
       <c r="C56">
         <v>43.5</v>
@@ -1923,14 +2389,22 @@
       <c r="D56">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <f>LEN(A56)</f>
+        <v>19</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>TCCAACATGTCTCTTACCGT[MGB]</v>
       </c>
       <c r="C57">
         <v>51.7</v>
@@ -1938,14 +2412,22 @@
       <c r="D57">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <f>LEN(A57)</f>
+        <v>20</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>TTGCTTATGTGGACGTTGTAT[MGB]</v>
       </c>
       <c r="C58">
         <v>52.1</v>
@@ -1953,14 +2435,22 @@
       <c r="D58">
         <v>70</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <f>LEN(A58)</f>
+        <v>21</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38095238095238093</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>GACCTAGCCTGTCAGAATCAG[MGB]</v>
       </c>
       <c r="C59">
         <v>52.8</v>
@@ -1968,14 +2458,22 @@
       <c r="D59">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <f>LEN(A59)</f>
+        <v>21</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="1"/>
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>GCCGGTCACGTTTAAGTCTCC[MGB]</v>
       </c>
       <c r="C60">
         <v>59.6</v>
@@ -1983,14 +2481,22 @@
       <c r="D60">
         <v>78</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <f>LEN(A60)</f>
+        <v>21</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>CAGTGGAGGTCTTGGTTGCCTC[MGB]</v>
       </c>
       <c r="C61">
         <v>61.9</v>
@@ -1998,14 +2504,22 @@
       <c r="D61">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <f>LEN(A61)</f>
+        <v>22</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>GCTCTGGTTTCGCCTCAAAAAT[MGB]</v>
       </c>
       <c r="C62">
         <v>60.5</v>
@@ -2013,14 +2527,22 @@
       <c r="D62">
         <v>81</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <f>LEN(A62)</f>
+        <v>22</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>CATATCCGGAATTGGTATATCC[MGB]</v>
       </c>
       <c r="C63">
         <v>53.9</v>
@@ -2028,14 +2550,22 @@
       <c r="D63">
         <v>72</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <f>LEN(A63)</f>
+        <v>22</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="1"/>
+        <v>0.40909090909090912</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>CTCTTCAATGTTTAAATGACCCT[MGB]</v>
       </c>
       <c r="C64">
         <v>53.2</v>
@@ -2043,14 +2573,22 @@
       <c r="D64">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <f>LEN(A64)</f>
+        <v>23</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34782608695652173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>GAAGTTGAATCGGTGATACGGAT[MGB]</v>
       </c>
       <c r="C65">
         <v>58</v>
@@ -2058,14 +2596,22 @@
       <c r="D65">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <f>LEN(A65)</f>
+        <v>23</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43478260869565216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>CGATAGTTTGATCGTGCTAGTTG[MGB]</v>
       </c>
       <c r="C66">
         <v>55.6</v>
@@ -2073,14 +2619,22 @@
       <c r="D66">
         <v>73</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <f>LEN(A66)</f>
+        <v>23</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43478260869565216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="B67">
-        <f t="shared" ref="B67:B130" si="1">LEN(A67)</f>
-        <v>24</v>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B130" si="2">_xlfn.CONCAT(A67,"[MGB]")</f>
+        <v>GACAAGTCATTTCTGATACATCCC[MGB]</v>
       </c>
       <c r="C67">
         <v>55.5</v>
@@ -2088,14 +2642,22 @@
       <c r="D67">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <f>LEN(A67)</f>
+        <v>24</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F130" si="3">(2 * LEN(A67) - LEN(SUBSTITUTE(A67, "G","")) - LEN(SUBSTITUTE(A67, "C",""))) / LEN(A67)</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="1"/>
-        <v>25</v>
+      <c r="B68" t="str">
+        <f t="shared" si="2"/>
+        <v>AATACCTCGTCCGTGTTACCAGACC[MGB]</v>
       </c>
       <c r="C68">
         <v>62.3</v>
@@ -2103,14 +2665,22 @@
       <c r="D68">
         <v>76</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <f>LEN(A68)</f>
+        <v>25</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
-        <v>25</v>
+      <c r="B69" t="str">
+        <f t="shared" si="2"/>
+        <v>TAGCAGAGCCAGTCTTAAAGCCTAG[MGB]</v>
       </c>
       <c r="C69">
         <v>58.7</v>
@@ -2118,14 +2688,22 @@
       <c r="D69">
         <v>76</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <f>LEN(A69)</f>
+        <v>25</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
-        <v>25</v>
+      <c r="B70" t="str">
+        <f t="shared" si="2"/>
+        <v>GAACTTAATACCGTAGCTCAGAATT[MGB]</v>
       </c>
       <c r="C70">
         <v>53.6</v>
@@ -2133,14 +2711,22 @@
       <c r="D70">
         <v>74</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <f>LEN(A70)</f>
+        <v>25</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
-        <v>25</v>
+      <c r="B71" t="str">
+        <f t="shared" si="2"/>
+        <v>GGTTGGGGTTATGCGGTACCAGTGC[MGB]</v>
       </c>
       <c r="C71">
         <v>68.599999999999994</v>
@@ -2148,14 +2734,22 @@
       <c r="D71">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <f>LEN(A71)</f>
+        <v>25</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="B72">
-        <f t="shared" si="1"/>
-        <v>25</v>
+      <c r="B72" t="str">
+        <f t="shared" si="2"/>
+        <v>GCTTATTTTAGAACGCATGTAAAGC[MGB]</v>
       </c>
       <c r="C72">
         <v>56.8</v>
@@ -2163,14 +2757,22 @@
       <c r="D72">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <f>LEN(A72)</f>
+        <v>25</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
-      <c r="B73">
-        <f t="shared" si="1"/>
-        <v>26</v>
+      <c r="B73" t="str">
+        <f t="shared" si="2"/>
+        <v>CGATGACAGTAACCTCGGACCATCCT[MGB]</v>
       </c>
       <c r="C73">
         <v>66.099999999999994</v>
@@ -2178,14 +2780,22 @@
       <c r="D73">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <f>LEN(A73)</f>
+        <v>26</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="3"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
-      <c r="B74">
-        <f t="shared" si="1"/>
-        <v>26</v>
+      <c r="B74" t="str">
+        <f t="shared" si="2"/>
+        <v>GTGGTGCACCACACTTGTAGCTGTGA[MGB]</v>
       </c>
       <c r="C74">
         <v>66.2</v>
@@ -2193,14 +2803,22 @@
       <c r="D74">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <f>LEN(A74)</f>
+        <v>26</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="3"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="B75">
-        <f t="shared" si="1"/>
-        <v>27</v>
+      <c r="B75" t="str">
+        <f t="shared" si="2"/>
+        <v>CGTTAACCGATACATACTGGTTTCTCT[MGB]</v>
       </c>
       <c r="C75">
         <v>59</v>
@@ -2208,14 +2826,22 @@
       <c r="D75">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <f>LEN(A75)</f>
+        <v>27</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40740740740740738</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
-      <c r="B76">
-        <f t="shared" si="1"/>
-        <v>27</v>
+      <c r="B76" t="str">
+        <f t="shared" si="2"/>
+        <v>CCGCAACAGCGACGACTAATTGATCAG[MGB]</v>
       </c>
       <c r="C76">
         <v>68.900000000000006</v>
@@ -2223,14 +2849,22 @@
       <c r="D76">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <f>LEN(A76)</f>
+        <v>27</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51851851851851849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
-      <c r="B77">
-        <f t="shared" si="1"/>
-        <v>28</v>
+      <c r="B77" t="str">
+        <f t="shared" si="2"/>
+        <v>GGACCTCAGGAGCTAGACGGGGACCTAC[MGB]</v>
       </c>
       <c r="C77">
         <v>69.2</v>
@@ -2238,14 +2872,22 @@
       <c r="D77">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <f>LEN(A77)</f>
+        <v>28</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
-      <c r="B78">
-        <f t="shared" si="1"/>
-        <v>29</v>
+      <c r="B78" t="str">
+        <f t="shared" si="2"/>
+        <v>GTGTGCCTTCGTAGGCTGTTTCTCAGGAC[MGB]</v>
       </c>
       <c r="C78">
         <v>69.2</v>
@@ -2253,14 +2895,22 @@
       <c r="D78">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <f>LEN(A78)</f>
+        <v>29</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="3"/>
+        <v>0.55172413793103448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
-      <c r="B79">
-        <f t="shared" si="1"/>
-        <v>29</v>
+      <c r="B79" t="str">
+        <f t="shared" si="2"/>
+        <v>CCCAACTATTCTTTCCAATCCTACATCTG[MGB]</v>
       </c>
       <c r="C79">
         <v>62.9</v>
@@ -2268,14 +2918,22 @@
       <c r="D79">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <f>LEN(A79)</f>
+        <v>29</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41379310344827586</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
-      <c r="B80">
-        <f t="shared" si="1"/>
-        <v>31</v>
+      <c r="B80" t="str">
+        <f t="shared" si="2"/>
+        <v>CTTGGATATCGGAAGGGTTCTGTAGTGAATG[MGB]</v>
       </c>
       <c r="C80">
         <v>66.8</v>
@@ -2283,14 +2941,22 @@
       <c r="D80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <f>LEN(A80)</f>
+        <v>31</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="3"/>
+        <v>0.45161290322580644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="B81">
-        <f t="shared" si="1"/>
-        <v>31</v>
+      <c r="B81" t="str">
+        <f t="shared" si="2"/>
+        <v>TCGGCTGCTGGTCGTGTGACCATCTGATTCG[MGB]</v>
       </c>
       <c r="C81">
         <v>78.2</v>
@@ -2298,14 +2964,22 @@
       <c r="D81">
         <v>85</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <f>LEN(A81)</f>
+        <v>31</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="3"/>
+        <v>0.58064516129032262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
-      <c r="B82">
-        <f t="shared" si="1"/>
-        <v>31</v>
+      <c r="B82" t="str">
+        <f t="shared" si="2"/>
+        <v>CTGAAATAACTTATCCGCGAGGAGCATGCTA[MGB]</v>
       </c>
       <c r="C82">
         <v>68.7</v>
@@ -2313,14 +2987,22 @@
       <c r="D82">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <f>LEN(A82)</f>
+        <v>31</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="3"/>
+        <v>0.45161290322580644</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="B83">
-        <f t="shared" si="1"/>
-        <v>31</v>
+      <c r="B83" t="str">
+        <f t="shared" si="2"/>
+        <v>TATCTCAAGCCTGGGCAATTCAGATAGTCAA[MGB]</v>
       </c>
       <c r="C83">
         <v>67.8</v>
@@ -2328,14 +3010,22 @@
       <c r="D83">
         <v>78</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <f>LEN(A83)</f>
+        <v>31</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41935483870967744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
-      <c r="B84">
-        <f t="shared" si="1"/>
-        <v>32</v>
+      <c r="B84" t="str">
+        <f t="shared" si="2"/>
+        <v>CAAACCACCCTACTGGCACGAAGTTCACAGAA[MGB]</v>
       </c>
       <c r="C84">
         <v>72.5</v>
@@ -2343,14 +3033,22 @@
       <c r="D84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <f>LEN(A84)</f>
+        <v>32</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
-      <c r="B85">
-        <f t="shared" si="1"/>
-        <v>32</v>
+      <c r="B85" t="str">
+        <f t="shared" si="2"/>
+        <v>TGAGATTATGTCTCGTTTGGCAGTCTTGATGC[MGB]</v>
       </c>
       <c r="C85">
         <v>69.7</v>
@@ -2358,14 +3056,22 @@
       <c r="D85">
         <v>79</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <f>LEN(A85)</f>
+        <v>32</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
-      <c r="B86">
-        <f t="shared" si="1"/>
-        <v>32</v>
+      <c r="B86" t="str">
+        <f t="shared" si="2"/>
+        <v>GCTTCCATAGCACAGGTTGACGGAGGAGTTTT[MGB]</v>
       </c>
       <c r="C86">
         <v>71.7</v>
@@ -2373,14 +3079,22 @@
       <c r="D86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <f>LEN(A86)</f>
+        <v>32</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
-      <c r="B87">
-        <f t="shared" si="1"/>
-        <v>33</v>
+      <c r="B87" t="str">
+        <f t="shared" si="2"/>
+        <v>TTTTACGACTCCAAGTTTCCTGCGCAATACCAA[MGB]</v>
       </c>
       <c r="C87">
         <v>71.900000000000006</v>
@@ -2388,14 +3102,22 @@
       <c r="D87">
         <v>80</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <f>LEN(A87)</f>
+        <v>33</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="3"/>
+        <v>0.42424242424242425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
-      <c r="B88">
-        <f t="shared" si="1"/>
-        <v>34</v>
+      <c r="B88" t="str">
+        <f t="shared" si="2"/>
+        <v>GTGCGGCGACCCTTGCGACAGTGACGCTTTCGCC[MGB]</v>
       </c>
       <c r="C88">
         <v>85.4</v>
@@ -2403,14 +3125,22 @@
       <c r="D88">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <f>LEN(A88)</f>
+        <v>34</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="3"/>
+        <v>0.67647058823529416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
-      <c r="B89">
-        <f t="shared" si="1"/>
-        <v>34</v>
+      <c r="B89" t="str">
+        <f t="shared" si="2"/>
+        <v>CGATATATAGTTTGATAGCTGATACTTATGGCGC[MGB]</v>
       </c>
       <c r="C89">
         <v>64.400000000000006</v>
@@ -2418,14 +3148,22 @@
       <c r="D89">
         <v>75</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <f>LEN(A89)</f>
+        <v>34</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38235294117647056</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
-      <c r="B90">
-        <f t="shared" si="1"/>
-        <v>34</v>
+      <c r="B90" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCTCCGGGTCACTGTGTAGGCTCTACGATGTGT[MGB]</v>
       </c>
       <c r="C90">
         <v>74.099999999999994</v>
@@ -2433,14 +3171,22 @@
       <c r="D90">
         <v>84</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <f>LEN(A90)</f>
+        <v>34</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="3"/>
+        <v>0.55882352941176472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
-      <c r="B91">
-        <f t="shared" si="1"/>
-        <v>34</v>
+      <c r="B91" t="str">
+        <f t="shared" si="2"/>
+        <v>AAAGGGCTCCAACTGCCTTCAACATGTGCCGACG[MGB]</v>
       </c>
       <c r="C91">
         <v>79.599999999999994</v>
@@ -2448,14 +3194,22 @@
       <c r="D91">
         <v>84</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <f>LEN(A91)</f>
+        <v>34</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="3"/>
+        <v>0.55882352941176472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
-      <c r="B92">
-        <f t="shared" si="1"/>
-        <v>35</v>
+      <c r="B92" t="str">
+        <f t="shared" si="2"/>
+        <v>GAATGCGCCGCAAGTAGCAGGTCCCGGCGTGGATA[MGB]</v>
       </c>
       <c r="C92">
         <v>83.2</v>
@@ -2463,14 +3217,22 @@
       <c r="D92">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <f>LEN(A92)</f>
+        <v>35</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="3"/>
+        <v>0.62857142857142856</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
-      <c r="B93">
-        <f t="shared" si="1"/>
-        <v>35</v>
+      <c r="B93" t="str">
+        <f t="shared" si="2"/>
+        <v>CCTTACTTTACCGAACGGCTAGTGTTAGGTCGACG[MGB]</v>
       </c>
       <c r="C93">
         <v>71.7</v>
@@ -2478,14 +3240,22 @@
       <c r="D93">
         <v>80</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <f>LEN(A93)</f>
+        <v>35</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
-      <c r="B94">
-        <f t="shared" si="1"/>
-        <v>35</v>
+      <c r="B94" t="str">
+        <f t="shared" si="2"/>
+        <v>TCATACAAACCCTGAGAAACTCAGAATACTTTATT[MGB]</v>
       </c>
       <c r="C94">
         <v>63.3</v>
@@ -2493,14 +3263,22 @@
       <c r="D94">
         <v>77</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <f>LEN(A94)</f>
+        <v>35</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31428571428571428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
-      <c r="B95">
-        <f t="shared" si="1"/>
-        <v>36</v>
+      <c r="B95" t="str">
+        <f t="shared" si="2"/>
+        <v>AGTTTCTACGATATACTCATGGTAGTGTAACGCATA[MGB]</v>
       </c>
       <c r="C95">
         <v>63.8</v>
@@ -2508,14 +3286,22 @@
       <c r="D95">
         <v>76</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <f>LEN(A95)</f>
+        <v>36</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
-      <c r="B96">
-        <f t="shared" si="1"/>
-        <v>36</v>
+      <c r="B96" t="str">
+        <f t="shared" si="2"/>
+        <v>AGCCCCGCTTCGTTTAATGGTTGAATGATCTCTGGG[MGB]</v>
       </c>
       <c r="C96">
         <v>77.2</v>
@@ -2523,14 +3309,22 @@
       <c r="D96">
         <v>83</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <f>LEN(A96)</f>
+        <v>36</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
-      <c r="B97">
-        <f t="shared" si="1"/>
-        <v>37</v>
+      <c r="B97" t="str">
+        <f t="shared" si="2"/>
+        <v>GATACCTGCAGTCTGGGAGGCAATGCTGAGGCCCTCT[MGB]</v>
       </c>
       <c r="C97">
         <v>79.8</v>
@@ -2538,14 +3332,22 @@
       <c r="D97">
         <v>87</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <f>LEN(A97)</f>
+        <v>37</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="3"/>
+        <v>0.59459459459459463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
-      <c r="B98">
-        <f t="shared" si="1"/>
-        <v>38</v>
+      <c r="B98" t="str">
+        <f t="shared" si="2"/>
+        <v>TAAACAGCTCAGGAGCCAGTCCCCTACGTCGCATATCC[MGB]</v>
       </c>
       <c r="C98">
         <v>77.8</v>
@@ -2553,14 +3355,22 @@
       <c r="D98">
         <v>87</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <f>LEN(A98)</f>
+        <v>38</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="3"/>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
-      <c r="B99">
-        <f t="shared" si="1"/>
-        <v>38</v>
+      <c r="B99" t="str">
+        <f t="shared" si="2"/>
+        <v>TTCTTGCGTCGTAGCGGGACCCTCCATTGTTACTTATT[MGB]</v>
       </c>
       <c r="C99">
         <v>75.7</v>
@@ -2568,14 +3378,22 @@
       <c r="D99">
         <v>85</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <f>LEN(A99)</f>
+        <v>38</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
-      <c r="B100">
-        <f t="shared" si="1"/>
-        <v>38</v>
+      <c r="B100" t="str">
+        <f t="shared" si="2"/>
+        <v>GTCCGTCGTTGTTCCCGATGAAGACGTCTACTGATATG[MGB]</v>
       </c>
       <c r="C100">
         <v>75.5</v>
@@ -2583,14 +3401,22 @@
       <c r="D100">
         <v>83</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <f>LEN(A100)</f>
+        <v>38</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
-      <c r="B101">
-        <f t="shared" si="1"/>
-        <v>38</v>
+      <c r="B101" t="str">
+        <f t="shared" si="2"/>
+        <v>AGGAGGCCGCACCCTAGGTCAAGTTTTACGATTGCCCT[MGB]</v>
       </c>
       <c r="C101">
         <v>79.099999999999994</v>
@@ -2598,14 +3424,22 @@
       <c r="D101">
         <v>86</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <f>LEN(A101)</f>
+        <v>38</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="3"/>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
-      <c r="B102">
-        <f t="shared" si="1"/>
-        <v>38</v>
+      <c r="B102" t="str">
+        <f t="shared" si="2"/>
+        <v>AGCCAGGAAATTTCTTTGTATCCTAAGAGGAAGCTCAA[MGB]</v>
       </c>
       <c r="C102">
         <v>71</v>
@@ -2613,14 +3447,22 @@
       <c r="D102">
         <v>80</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <f>LEN(A102)</f>
+        <v>38</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
-      <c r="B103">
-        <f t="shared" si="1"/>
-        <v>39</v>
+      <c r="B103" t="str">
+        <f t="shared" si="2"/>
+        <v>AACGCGACGGCTGAGACGAACGGCGCGTGAATGAAGCGC[MGB]</v>
       </c>
       <c r="C103">
         <v>88.4</v>
@@ -2628,14 +3470,22 @@
       <c r="D103">
         <v>92</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <f>LEN(A103)</f>
+        <v>39</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64102564102564108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
-      <c r="B104">
-        <f t="shared" si="1"/>
-        <v>39</v>
+      <c r="B104" t="str">
+        <f t="shared" si="2"/>
+        <v>GGCCACTGGAGGTGAAGCGAATGGTATCGATACGTAGGA[MGB]</v>
       </c>
       <c r="C104">
         <v>78.5</v>
@@ -2643,14 +3493,22 @@
       <c r="D104">
         <v>84</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <f>LEN(A104)</f>
+        <v>39</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="3"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
-      <c r="B105">
-        <f t="shared" si="1"/>
-        <v>39</v>
+      <c r="B105" t="str">
+        <f t="shared" si="2"/>
+        <v>GTCTATTGAGCTTCGAGGATGCATACAAGCCCACCCGCA[MGB]</v>
       </c>
       <c r="C105">
         <v>80.3</v>
@@ -2658,14 +3516,22 @@
       <c r="D105">
         <v>84</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <f>LEN(A105)</f>
+        <v>39</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="3"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
-      <c r="B106">
-        <f t="shared" si="1"/>
-        <v>39</v>
+      <c r="B106" t="str">
+        <f t="shared" si="2"/>
+        <v>AATTTATTAAGCACGGTGTTAACTTCTGTTTAGTGGGCT[MGB]</v>
       </c>
       <c r="C106">
         <v>69.2</v>
@@ -2673,14 +3539,22 @@
       <c r="D106">
         <v>78</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <f>LEN(A106)</f>
+        <v>39</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="3"/>
+        <v>0.35897435897435898</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
-      <c r="B107">
-        <f t="shared" si="1"/>
-        <v>39</v>
+      <c r="B107" t="str">
+        <f t="shared" si="2"/>
+        <v>GTCCCATACGAGATGACCTTACGAACTGTAACTAATCCG[MGB]</v>
       </c>
       <c r="C107">
         <v>71.8</v>
@@ -2688,14 +3562,22 @@
       <c r="D107">
         <v>82</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <f>LEN(A107)</f>
+        <v>39</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="3"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
-      <c r="B108">
-        <f t="shared" si="1"/>
-        <v>17</v>
+      <c r="B108" t="str">
+        <f t="shared" si="2"/>
+        <v>TTGGGATTGAAAGAAGG[MGB]</v>
       </c>
       <c r="C108">
         <v>47.4</v>
@@ -2703,14 +3585,22 @@
       <c r="D108">
         <v>69</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <f>LEN(A108)</f>
+        <v>17</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
-      <c r="B109">
-        <f t="shared" si="1"/>
-        <v>28</v>
+      <c r="B109" t="str">
+        <f t="shared" si="2"/>
+        <v>GACGCTAGCAGTATCATGCTATCTATGG[MGB]</v>
       </c>
       <c r="C109">
         <v>61.4</v>
@@ -2718,14 +3608,22 @@
       <c r="D109">
         <v>78</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <f>LEN(A109)</f>
+        <v>28</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
-      <c r="B110">
-        <f t="shared" si="1"/>
-        <v>16</v>
+      <c r="B110" t="str">
+        <f t="shared" si="2"/>
+        <v>ACAAATGGACATTATT[MGB]</v>
       </c>
       <c r="C110">
         <v>34.799999999999997</v>
@@ -2733,14 +3631,22 @@
       <c r="D110">
         <v>65</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <f>LEN(A110)</f>
+        <v>16</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
-      <c r="B111">
-        <f t="shared" si="1"/>
-        <v>23</v>
+      <c r="B111" t="str">
+        <f t="shared" si="2"/>
+        <v>TTGGAAGGTCGTTAGTGTCCGAG[MGB]</v>
       </c>
       <c r="C111">
         <v>61.3</v>
@@ -2748,14 +3654,22 @@
       <c r="D111">
         <v>73</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <f>LEN(A111)</f>
+        <v>23</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
-      <c r="B112">
-        <f t="shared" si="1"/>
-        <v>18</v>
+      <c r="B112" t="str">
+        <f t="shared" si="2"/>
+        <v>GTCTCATAGATCCAGTTT[MGB]</v>
       </c>
       <c r="C112">
         <v>39.299999999999997</v>
@@ -2763,14 +3677,22 @@
       <c r="D112">
         <v>64</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <f>LEN(A112)</f>
+        <v>18</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
-      <c r="B113">
-        <f t="shared" si="1"/>
-        <v>11</v>
+      <c r="B113" t="str">
+        <f t="shared" si="2"/>
+        <v>ACGCCTTGGAT[MGB]</v>
       </c>
       <c r="C113">
         <v>30.8</v>
@@ -2778,14 +3700,22 @@
       <c r="D113">
         <v>57</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <f>LEN(A113)</f>
+        <v>11</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="3"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
-      <c r="B114">
-        <f t="shared" si="1"/>
-        <v>25</v>
+      <c r="B114" t="str">
+        <f t="shared" si="2"/>
+        <v>GAGAGACAACTGCGTAGCTCTCAGT[MGB]</v>
       </c>
       <c r="C114">
         <v>59.4</v>
@@ -2793,14 +3723,22 @@
       <c r="D114">
         <v>77</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <f>LEN(A114)</f>
+        <v>25</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
-      <c r="B115">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="B115" t="str">
+        <f t="shared" si="2"/>
+        <v>GTTGTCCAACCTTTATTGAGCTTTTTACGG[MGB]</v>
       </c>
       <c r="C115">
         <v>65.2</v>
@@ -2808,14 +3746,22 @@
       <c r="D115">
         <v>76</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <f>LEN(A115)</f>
+        <v>30</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
-      <c r="B116">
-        <f t="shared" si="1"/>
-        <v>33</v>
+      <c r="B116" t="str">
+        <f t="shared" si="2"/>
+        <v>TGGGCCAGGGCCTTGGATATCGTTGGCTACTCC[MGB]</v>
       </c>
       <c r="C116">
         <v>78.7</v>
@@ -2823,14 +3769,22 @@
       <c r="D116">
         <v>87</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <f>LEN(A116)</f>
+        <v>33</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60606060606060608</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
-      <c r="B117">
-        <f t="shared" si="1"/>
-        <v>17</v>
+      <c r="B117" t="str">
+        <f t="shared" si="2"/>
+        <v>AGTGAGAGCATAATTTT[MGB]</v>
       </c>
       <c r="C117">
         <v>37.5</v>
@@ -2838,14 +3792,22 @@
       <c r="D117">
         <v>70</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <f>LEN(A117)</f>
+        <v>17</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
-      <c r="B118">
-        <f t="shared" si="1"/>
-        <v>30</v>
+      <c r="B118" t="str">
+        <f t="shared" si="2"/>
+        <v>AGTCACGTTCGATTCCCCAATTACCTTAGA[MGB]</v>
       </c>
       <c r="C118">
         <v>66.900000000000006</v>
@@ -2853,14 +3815,22 @@
       <c r="D118">
         <v>78</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <f>LEN(A118)</f>
+        <v>30</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="3"/>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
-      <c r="B119">
-        <f t="shared" si="1"/>
-        <v>39</v>
+      <c r="B119" t="str">
+        <f t="shared" si="2"/>
+        <v>GGACGATCACCGGCAAAATGTCACACGATGCAGCGTGCT[MGB]</v>
       </c>
       <c r="C119">
         <v>84.7</v>
@@ -2868,14 +3838,22 @@
       <c r="D119">
         <v>87</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <f>LEN(A119)</f>
+        <v>39</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5641025641025641</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
-      <c r="B120">
-        <f t="shared" si="1"/>
-        <v>21</v>
+      <c r="B120" t="str">
+        <f t="shared" si="2"/>
+        <v>GTCGTACCACTGTAAGACGCT[MGB]</v>
       </c>
       <c r="C120">
         <v>53.3</v>
@@ -2883,14 +3861,22 @@
       <c r="D120">
         <v>74</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <f>LEN(A120)</f>
+        <v>21</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
-      <c r="B121">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="B121" t="str">
+        <f t="shared" si="2"/>
+        <v>CCAGAGATCCCGACTGTGCT[MGB]</v>
       </c>
       <c r="C121">
         <v>58.8</v>
@@ -2898,14 +3884,22 @@
       <c r="D121">
         <v>74</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <f>LEN(A121)</f>
+        <v>20</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
-      <c r="B122">
-        <f t="shared" si="1"/>
-        <v>36</v>
+      <c r="B122" t="str">
+        <f t="shared" si="2"/>
+        <v>AAGGCCCCCTGAGGCTCGAAAGACTCTTATGTTAGT[MGB]</v>
       </c>
       <c r="C122">
         <v>73.2</v>
@@ -2913,14 +3907,22 @@
       <c r="D122">
         <v>83</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <f>LEN(A122)</f>
+        <v>36</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
-      <c r="B123">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="B123" t="str">
+        <f t="shared" si="2"/>
+        <v>ATCGATCGTTGA[MGB]</v>
       </c>
       <c r="C123">
         <v>27.6</v>
@@ -2928,14 +3930,22 @@
       <c r="D123">
         <v>54</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <f>LEN(A123)</f>
+        <v>12</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
-      <c r="B124">
-        <f t="shared" si="1"/>
-        <v>24</v>
+      <c r="B124" t="str">
+        <f t="shared" si="2"/>
+        <v>TAACGCTTGCACTAACTTTCGTGT[MGB]</v>
       </c>
       <c r="C124">
         <v>59.1</v>
@@ -2943,14 +3953,22 @@
       <c r="D124">
         <v>72</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <f>LEN(A124)</f>
+        <v>24</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
-      <c r="B125">
-        <f t="shared" si="1"/>
-        <v>31</v>
+      <c r="B125" t="str">
+        <f t="shared" si="2"/>
+        <v>CACCGTACCGGGATCTGCGATGGTTTTTGAA[MGB]</v>
       </c>
       <c r="C125">
         <v>75.400000000000006</v>
@@ -2958,14 +3976,22 @@
       <c r="D125">
         <v>83</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <f>LEN(A125)</f>
+        <v>31</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5161290322580645</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
-      <c r="B126">
-        <f t="shared" si="1"/>
-        <v>29</v>
+      <c r="B126" t="str">
+        <f t="shared" si="2"/>
+        <v>CTACTACTGGTAGCTACGTTCCGGGCAGG[MGB]</v>
       </c>
       <c r="C126">
         <v>67.900000000000006</v>
@@ -2973,14 +3999,22 @@
       <c r="D126">
         <v>79</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <f>LEN(A126)</f>
+        <v>29</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="3"/>
+        <v>0.58620689655172409</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
-      <c r="B127">
-        <f t="shared" si="1"/>
-        <v>11</v>
+      <c r="B127" t="str">
+        <f t="shared" si="2"/>
+        <v>ATCTGTTGGAA[MGB]</v>
       </c>
       <c r="C127">
         <v>16.2</v>
@@ -2988,14 +4022,22 @@
       <c r="D127">
         <v>50</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <f>LEN(A127)</f>
+        <v>11</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
-      <c r="B128">
-        <f t="shared" si="1"/>
-        <v>26</v>
+      <c r="B128" t="str">
+        <f t="shared" si="2"/>
+        <v>ATAGTACCTCCCCCTGCTCGACACAC[MGB]</v>
       </c>
       <c r="C128">
         <v>65.3</v>
@@ -3003,14 +4045,22 @@
       <c r="D128">
         <v>78</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <f>LEN(A128)</f>
+        <v>26</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="3"/>
+        <v>0.57692307692307687</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
-      <c r="B129">
-        <f t="shared" si="1"/>
-        <v>21</v>
+      <c r="B129" t="str">
+        <f t="shared" si="2"/>
+        <v>AATGAATCAGCTATTATTAGG[MGB]</v>
       </c>
       <c r="C129">
         <v>45</v>
@@ -3018,14 +4068,22 @@
       <c r="D129">
         <v>66</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <f>LEN(A129)</f>
+        <v>21</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
-      <c r="B130">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="B130" t="str">
+        <f t="shared" si="2"/>
+        <v>AGTATTTACCCATGCCTCGT[MGB]</v>
       </c>
       <c r="C130">
         <v>52.6</v>
@@ -3033,14 +4091,22 @@
       <c r="D130">
         <v>68</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <f>LEN(A130)</f>
+        <v>20</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
-      <c r="B131">
-        <f t="shared" ref="B131:B194" si="2">LEN(A131)</f>
-        <v>18</v>
+      <c r="B131" t="str">
+        <f t="shared" ref="B131:B194" si="4">_xlfn.CONCAT(A131,"[MGB]")</f>
+        <v>CCGCATCAACCCGGTACT[MGB]</v>
       </c>
       <c r="C131">
         <v>58</v>
@@ -3048,14 +4114,22 @@
       <c r="D131">
         <v>74</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <f>LEN(A131)</f>
+        <v>18</v>
+      </c>
+      <c r="F131" s="2">
+        <f t="shared" ref="F131:F194" si="5">(2 * LEN(A131) - LEN(SUBSTITUTE(A131, "G","")) - LEN(SUBSTITUTE(A131, "C",""))) / LEN(A131)</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
-      <c r="B132">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="B132" t="str">
+        <f t="shared" si="4"/>
+        <v>TGTTCAGCACGGAT[MGB]</v>
       </c>
       <c r="C132">
         <v>40.5</v>
@@ -3063,14 +4137,22 @@
       <c r="D132">
         <v>63</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <f>LEN(A132)</f>
+        <v>14</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
-      <c r="B133">
-        <f t="shared" si="2"/>
-        <v>33</v>
+      <c r="B133" t="str">
+        <f t="shared" si="4"/>
+        <v>ATGTAATAGCTCTAAGATGGAAGCTGCAATACG[MGB]</v>
       </c>
       <c r="C133">
         <v>65.099999999999994</v>
@@ -3078,14 +4160,22 @@
       <c r="D133">
         <v>78</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <f>LEN(A133)</f>
+        <v>33</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" si="5"/>
+        <v>0.39393939393939392</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
-      <c r="B134">
-        <f t="shared" si="2"/>
-        <v>36</v>
+      <c r="B134" t="str">
+        <f t="shared" si="4"/>
+        <v>GGCTATTCCAATCGCTGCTCCCGACCGGTCCCCCAG[MGB]</v>
       </c>
       <c r="C134">
         <v>84.2</v>
@@ -3093,14 +4183,22 @@
       <c r="D134">
         <v>87</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <f>LEN(A134)</f>
+        <v>36</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
-      <c r="B135">
-        <f t="shared" si="2"/>
-        <v>18</v>
+      <c r="B135" t="str">
+        <f t="shared" si="4"/>
+        <v>CGGTTTAAAGCACGGGAT[MGB]</v>
       </c>
       <c r="C135">
         <v>54.8</v>
@@ -3108,14 +4206,22 @@
       <c r="D135">
         <v>69</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <f>LEN(A135)</f>
+        <v>18</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
-      <c r="B136">
-        <f t="shared" si="2"/>
-        <v>30</v>
+      <c r="B136" t="str">
+        <f t="shared" si="4"/>
+        <v>CGAGCGTCCCACTTACACAATATACATGCC[MGB]</v>
       </c>
       <c r="C136">
         <v>68.900000000000006</v>
@@ -3123,14 +4229,22 @@
       <c r="D136">
         <v>80</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <f>LEN(A136)</f>
+        <v>30</v>
+      </c>
+      <c r="F136" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
-      <c r="B137">
-        <f t="shared" si="2"/>
-        <v>30</v>
+      <c r="B137" t="str">
+        <f t="shared" si="4"/>
+        <v>CGGGTTGGCCTACGTCATTGAGCTTCAGAT[MGB]</v>
       </c>
       <c r="C137">
         <v>72.7</v>
@@ -3138,14 +4252,22 @@
       <c r="D137">
         <v>82</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <f>LEN(A137)</f>
+        <v>30</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" si="5"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
-      <c r="B138">
-        <f t="shared" si="2"/>
-        <v>21</v>
+      <c r="B138" t="str">
+        <f t="shared" si="4"/>
+        <v>GGCTGAAGAGAACGGTAGGTG[MGB]</v>
       </c>
       <c r="C138">
         <v>57.5</v>
@@ -3153,14 +4275,22 @@
       <c r="D138">
         <v>74</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <f>LEN(A138)</f>
+        <v>21</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
-      <c r="B139">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="B139" t="str">
+        <f t="shared" si="4"/>
+        <v>TCGGCGATCAGGTG[MGB]</v>
       </c>
       <c r="C139">
         <v>48.4</v>
@@ -3168,14 +4298,22 @@
       <c r="D139">
         <v>67</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139">
+        <f>LEN(A139)</f>
+        <v>14</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" si="5"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
-      <c r="B140">
-        <f t="shared" si="2"/>
-        <v>36</v>
+      <c r="B140" t="str">
+        <f t="shared" si="4"/>
+        <v>ATTATTGGCTAAATGCTCTCAACGGAGTCCATCGCT[MGB]</v>
       </c>
       <c r="C140">
         <v>73.5</v>
@@ -3183,14 +4321,22 @@
       <c r="D140">
         <v>82</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <f>LEN(A140)</f>
+        <v>36</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
-      <c r="B141">
-        <f t="shared" si="2"/>
-        <v>33</v>
+      <c r="B141" t="str">
+        <f t="shared" si="4"/>
+        <v>ACTTTGGTCAGATATATCACCAGATTCACCGCC[MGB]</v>
       </c>
       <c r="C141">
         <v>69.900000000000006</v>
@@ -3198,14 +4344,22 @@
       <c r="D141">
         <v>78</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <f>LEN(A141)</f>
+        <v>33</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="5"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
-      <c r="B142">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="B142" t="str">
+        <f t="shared" si="4"/>
+        <v>ATGCCATGGGCTTG[MGB]</v>
       </c>
       <c r="C142">
         <v>47.3</v>
@@ -3213,14 +4367,22 @@
       <c r="D142">
         <v>68</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142">
+        <f>LEN(A142)</f>
+        <v>14</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
-      <c r="B143">
-        <f t="shared" si="2"/>
-        <v>20</v>
+      <c r="B143" t="str">
+        <f t="shared" si="4"/>
+        <v>CAGCGCTGCCTGCGAATGCC[MGB]</v>
       </c>
       <c r="C143">
         <v>70.099999999999994</v>
@@ -3228,14 +4390,22 @@
       <c r="D143">
         <v>85</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143">
+        <f>LEN(A143)</f>
+        <v>20</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
-      <c r="B144">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="B144" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAA[MGB]</v>
       </c>
       <c r="C144">
         <v>11.4</v>
@@ -3243,14 +4413,22 @@
       <c r="D144">
         <v>50</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144">
+        <f>LEN(A144)</f>
+        <v>10</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
-      <c r="B145">
-        <f t="shared" si="2"/>
-        <v>11</v>
+      <c r="B145" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C145">
         <v>17.399999999999999</v>
@@ -3258,14 +4436,22 @@
       <c r="D145">
         <v>52</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145">
+        <f>LEN(A145)</f>
+        <v>11</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
-      <c r="B146">
-        <f t="shared" si="2"/>
-        <v>12</v>
+      <c r="B146" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C146">
         <v>22.5</v>
@@ -3273,14 +4459,22 @@
       <c r="D146">
         <v>55</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <f>LEN(A146)</f>
+        <v>12</v>
+      </c>
+      <c r="F146" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
-      <c r="B147">
-        <f t="shared" si="2"/>
-        <v>13</v>
+      <c r="B147" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C147">
         <v>26.9</v>
@@ -3288,14 +4482,22 @@
       <c r="D147">
         <v>57</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <f>LEN(A147)</f>
+        <v>13</v>
+      </c>
+      <c r="F147" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
-      <c r="B148">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="B148" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C148">
         <v>30.7</v>
@@ -3303,14 +4505,22 @@
       <c r="D148">
         <v>57</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <f>LEN(A148)</f>
+        <v>14</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
-      <c r="B149">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="B149" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C149">
         <v>34</v>
@@ -3318,14 +4528,22 @@
       <c r="D149">
         <v>60</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <f>LEN(A149)</f>
+        <v>15</v>
+      </c>
+      <c r="F149" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
-      <c r="B150">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="B150" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C150">
         <v>36.9</v>
@@ -3333,14 +4551,22 @@
       <c r="D150">
         <v>61</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <f>LEN(A150)</f>
+        <v>16</v>
+      </c>
+      <c r="F150" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
-      <c r="B151">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="B151" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C151">
         <v>39.5</v>
@@ -3348,14 +4574,22 @@
       <c r="D151">
         <v>62</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151">
+        <f>LEN(A151)</f>
+        <v>17</v>
+      </c>
+      <c r="F151" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
-      <c r="B152">
-        <f t="shared" si="2"/>
-        <v>18</v>
+      <c r="B152" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C152">
         <v>41.9</v>
@@ -3363,14 +4597,22 @@
       <c r="D152">
         <v>63</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <f>LEN(A152)</f>
+        <v>18</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
-      <c r="B153">
-        <f t="shared" si="2"/>
-        <v>19</v>
+      <c r="B153" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C153">
         <v>44</v>
@@ -3378,14 +4620,22 @@
       <c r="D153">
         <v>64</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <f>LEN(A153)</f>
+        <v>19</v>
+      </c>
+      <c r="F153" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
-      <c r="B154">
-        <f t="shared" si="2"/>
-        <v>20</v>
+      <c r="B154" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C154">
         <v>45.9</v>
@@ -3393,14 +4643,22 @@
       <c r="D154">
         <v>65</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <f>LEN(A154)</f>
+        <v>20</v>
+      </c>
+      <c r="F154" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
-      <c r="B155">
-        <f t="shared" si="2"/>
-        <v>21</v>
+      <c r="B155" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C155">
         <v>47.6</v>
@@ -3408,14 +4666,22 @@
       <c r="D155">
         <v>65</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <f>LEN(A155)</f>
+        <v>21</v>
+      </c>
+      <c r="F155" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
-      <c r="B156">
-        <f t="shared" si="2"/>
-        <v>22</v>
+      <c r="B156" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C156">
         <v>49.2</v>
@@ -3423,14 +4689,22 @@
       <c r="D156">
         <v>66</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <f>LEN(A156)</f>
+        <v>22</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
-      <c r="B157">
-        <f t="shared" si="2"/>
-        <v>23</v>
+      <c r="B157" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C157">
         <v>50.6</v>
@@ -3438,14 +4712,22 @@
       <c r="D157">
         <v>67</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <f>LEN(A157)</f>
+        <v>23</v>
+      </c>
+      <c r="F157" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
-      <c r="B158">
-        <f t="shared" si="2"/>
-        <v>24</v>
+      <c r="B158" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C158">
         <v>52</v>
@@ -3453,14 +4735,22 @@
       <c r="D158">
         <v>67</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <f>LEN(A158)</f>
+        <v>24</v>
+      </c>
+      <c r="F158" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
-      <c r="B159">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="B159" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C159">
         <v>53.2</v>
@@ -3468,14 +4758,22 @@
       <c r="D159">
         <v>68</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <f>LEN(A159)</f>
+        <v>25</v>
+      </c>
+      <c r="F159" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
-      <c r="B160">
-        <f t="shared" si="2"/>
-        <v>26</v>
+      <c r="B160" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C160">
         <v>54.3</v>
@@ -3483,14 +4781,22 @@
       <c r="D160">
         <v>68</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <f>LEN(A160)</f>
+        <v>26</v>
+      </c>
+      <c r="F160" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
-      <c r="B161">
-        <f t="shared" si="2"/>
-        <v>27</v>
+      <c r="B161" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C161">
         <v>55.4</v>
@@ -3498,14 +4804,22 @@
       <c r="D161">
         <v>69</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <f>LEN(A161)</f>
+        <v>27</v>
+      </c>
+      <c r="F161" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
-      <c r="B162">
-        <f t="shared" si="2"/>
-        <v>28</v>
+      <c r="B162" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C162">
         <v>56.4</v>
@@ -3513,14 +4827,22 @@
       <c r="D162">
         <v>69</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <f>LEN(A162)</f>
+        <v>28</v>
+      </c>
+      <c r="F162" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
-      <c r="B163">
-        <f t="shared" si="2"/>
-        <v>29</v>
+      <c r="B163" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C163">
         <v>57.3</v>
@@ -3528,14 +4850,22 @@
       <c r="D163">
         <v>69</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <f>LEN(A163)</f>
+        <v>29</v>
+      </c>
+      <c r="F163" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
-      <c r="B164">
-        <f t="shared" si="2"/>
-        <v>30</v>
+      <c r="B164" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C164">
         <v>58.2</v>
@@ -3543,14 +4873,22 @@
       <c r="D164">
         <v>70</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <f>LEN(A164)</f>
+        <v>30</v>
+      </c>
+      <c r="F164" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
-      <c r="B165">
-        <f t="shared" si="2"/>
-        <v>31</v>
+      <c r="B165" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C165">
         <v>59</v>
@@ -3558,14 +4896,22 @@
       <c r="D165">
         <v>70</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <f>LEN(A165)</f>
+        <v>31</v>
+      </c>
+      <c r="F165" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
-      <c r="B166">
-        <f t="shared" si="2"/>
-        <v>32</v>
+      <c r="B166" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C166">
         <v>59.7</v>
@@ -3573,14 +4919,22 @@
       <c r="D166">
         <v>70</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <f>LEN(A166)</f>
+        <v>32</v>
+      </c>
+      <c r="F166" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
-      <c r="B167">
-        <f t="shared" si="2"/>
-        <v>33</v>
+      <c r="B167" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C167">
         <v>60.4</v>
@@ -3588,14 +4942,22 @@
       <c r="D167">
         <v>71</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <f>LEN(A167)</f>
+        <v>33</v>
+      </c>
+      <c r="F167" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
-      <c r="B168">
-        <f t="shared" si="2"/>
-        <v>34</v>
+      <c r="B168" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C168">
         <v>61.1</v>
@@ -3603,14 +4965,22 @@
       <c r="D168">
         <v>71</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <f>LEN(A168)</f>
+        <v>34</v>
+      </c>
+      <c r="F168" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
-      <c r="B169">
-        <f t="shared" si="2"/>
-        <v>35</v>
+      <c r="B169" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C169">
         <v>61.8</v>
@@ -3618,14 +4988,22 @@
       <c r="D169">
         <v>71</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <f>LEN(A169)</f>
+        <v>35</v>
+      </c>
+      <c r="F169" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
-      <c r="B170">
-        <f t="shared" si="2"/>
-        <v>36</v>
+      <c r="B170" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C170">
         <v>62.4</v>
@@ -3633,14 +5011,22 @@
       <c r="D170">
         <v>71</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170">
+        <f>LEN(A170)</f>
+        <v>36</v>
+      </c>
+      <c r="F170" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
-      <c r="B171">
-        <f t="shared" si="2"/>
-        <v>37</v>
+      <c r="B171" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C171">
         <v>62.9</v>
@@ -3648,14 +5034,22 @@
       <c r="D171">
         <v>72</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171">
+        <f>LEN(A171)</f>
+        <v>37</v>
+      </c>
+      <c r="F171" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
-      <c r="B172">
-        <f t="shared" si="2"/>
-        <v>38</v>
+      <c r="B172" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C172">
         <v>63.5</v>
@@ -3663,14 +5057,22 @@
       <c r="D172">
         <v>72</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <f>LEN(A172)</f>
+        <v>38</v>
+      </c>
+      <c r="F172" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
-      <c r="B173">
-        <f t="shared" si="2"/>
-        <v>39</v>
+      <c r="B173" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C173">
         <v>64</v>
@@ -3678,14 +5080,22 @@
       <c r="D173">
         <v>72</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <f>LEN(A173)</f>
+        <v>39</v>
+      </c>
+      <c r="F173" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
-      <c r="B174">
-        <f t="shared" si="2"/>
-        <v>40</v>
+      <c r="B174" t="str">
+        <f t="shared" si="4"/>
+        <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C174">
         <v>64.5</v>
@@ -3693,14 +5103,22 @@
       <c r="D174">
         <v>72</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <f>LEN(A174)</f>
+        <v>40</v>
+      </c>
+      <c r="F174" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
-      <c r="B175">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="B175" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCC[MGB]</v>
       </c>
       <c r="C175">
         <v>45.6</v>
@@ -3708,15 +5126,23 @@
       <c r="D175">
         <v>63</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <f>LEN(A175)</f>
+        <v>10</v>
+      </c>
+      <c r="F175" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f>_xlfn.CONCAT(A175,"C")</f>
         <v>CCCCCCCCCCC</v>
       </c>
-      <c r="B176">
-        <f t="shared" si="2"/>
-        <v>11</v>
+      <c r="B176" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C176">
         <v>51.7</v>
@@ -3724,15 +5150,23 @@
       <c r="D176">
         <v>67</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <f>LEN(A176)</f>
+        <v>11</v>
+      </c>
+      <c r="F176" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
-        <f t="shared" ref="A177:A205" si="3">_xlfn.CONCAT(A176,"C")</f>
+        <f t="shared" ref="A177:A205" si="6">_xlfn.CONCAT(A176,"C")</f>
         <v>CCCCCCCCCCCC</v>
       </c>
-      <c r="B177">
-        <f t="shared" si="2"/>
-        <v>12</v>
+      <c r="B177" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C177">
         <v>56.9</v>
@@ -3740,15 +5174,23 @@
       <c r="D177">
         <v>71</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177">
+        <f>LEN(A177)</f>
+        <v>12</v>
+      </c>
+      <c r="F177" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCC</v>
       </c>
-      <c r="B178">
-        <f t="shared" si="2"/>
-        <v>13</v>
+      <c r="B178" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C178">
         <v>61.3</v>
@@ -3756,15 +5198,23 @@
       <c r="D178">
         <v>74</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178">
+        <f>LEN(A178)</f>
+        <v>13</v>
+      </c>
+      <c r="F178" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCC</v>
       </c>
-      <c r="B179">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="B179" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C179">
         <v>65.2</v>
@@ -3772,15 +5222,23 @@
       <c r="D179">
         <v>77</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179">
+        <f>LEN(A179)</f>
+        <v>14</v>
+      </c>
+      <c r="F179" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B180">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="B180" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C180">
         <v>68.5</v>
@@ -3788,15 +5246,23 @@
       <c r="D180">
         <v>79</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180">
+        <f>LEN(A180)</f>
+        <v>15</v>
+      </c>
+      <c r="F180" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B181">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="B181" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C181">
         <v>71.5</v>
@@ -3804,15 +5270,23 @@
       <c r="D181">
         <v>81</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181">
+        <f>LEN(A181)</f>
+        <v>16</v>
+      </c>
+      <c r="F181" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B182">
-        <f t="shared" si="2"/>
-        <v>17</v>
+      <c r="B182" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C182">
         <v>74.099999999999994</v>
@@ -3820,15 +5294,23 @@
       <c r="D182">
         <v>83</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182">
+        <f>LEN(A182)</f>
+        <v>17</v>
+      </c>
+      <c r="F182" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B183">
-        <f t="shared" si="2"/>
-        <v>18</v>
+      <c r="B183" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C183">
         <v>76.400000000000006</v>
@@ -3836,15 +5318,23 @@
       <c r="D183">
         <v>85</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183">
+        <f>LEN(A183)</f>
+        <v>18</v>
+      </c>
+      <c r="F183" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B184">
-        <f t="shared" si="2"/>
-        <v>19</v>
+      <c r="B184" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C184">
         <v>78.5</v>
@@ -3852,15 +5342,23 @@
       <c r="D184">
         <v>87</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184">
+        <f>LEN(A184)</f>
+        <v>19</v>
+      </c>
+      <c r="F184" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B185">
-        <f t="shared" si="2"/>
-        <v>20</v>
+      <c r="B185" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C185">
         <v>80.5</v>
@@ -3868,15 +5366,23 @@
       <c r="D185">
         <v>88</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185">
+        <f>LEN(A185)</f>
+        <v>20</v>
+      </c>
+      <c r="F185" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B186">
-        <f t="shared" si="2"/>
-        <v>21</v>
+      <c r="B186" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C186">
         <v>82.2</v>
@@ -3884,15 +5390,23 @@
       <c r="D186">
         <v>89</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186">
+        <f>LEN(A186)</f>
+        <v>21</v>
+      </c>
+      <c r="F186" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B187">
-        <f t="shared" si="2"/>
-        <v>22</v>
+      <c r="B187" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C187">
         <v>83.8</v>
@@ -3900,15 +5414,23 @@
       <c r="D187">
         <v>91</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187">
+        <f>LEN(A187)</f>
+        <v>22</v>
+      </c>
+      <c r="F187" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B188">
-        <f t="shared" si="2"/>
-        <v>23</v>
+      <c r="B188" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C188">
         <v>85.2</v>
@@ -3916,15 +5438,23 @@
       <c r="D188">
         <v>92</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <f>LEN(A188)</f>
+        <v>23</v>
+      </c>
+      <c r="F188" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B189">
-        <f t="shared" si="2"/>
-        <v>24</v>
+      <c r="B189" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C189">
         <v>86.6</v>
@@ -3932,15 +5462,23 @@
       <c r="D189">
         <v>93</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189">
+        <f>LEN(A189)</f>
+        <v>24</v>
+      </c>
+      <c r="F189" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B190">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="B190" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C190">
         <v>87.8</v>
@@ -3948,15 +5486,23 @@
       <c r="D190">
         <v>94</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190">
+        <f>LEN(A190)</f>
+        <v>25</v>
+      </c>
+      <c r="F190" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B191">
-        <f t="shared" si="2"/>
-        <v>26</v>
+      <c r="B191" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C191">
         <v>88.9</v>
@@ -3964,15 +5510,23 @@
       <c r="D191">
         <v>95</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191">
+        <f>LEN(A191)</f>
+        <v>26</v>
+      </c>
+      <c r="F191" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B192">
-        <f t="shared" si="2"/>
-        <v>27</v>
+      <c r="B192" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C192">
         <v>90</v>
@@ -3980,15 +5534,23 @@
       <c r="D192">
         <v>95</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192">
+        <f>LEN(A192)</f>
+        <v>27</v>
+      </c>
+      <c r="F192" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B193">
-        <f t="shared" si="2"/>
-        <v>28</v>
+      <c r="B193" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C193">
         <v>91</v>
@@ -3996,15 +5558,23 @@
       <c r="D193">
         <v>96</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193">
+        <f>LEN(A193)</f>
+        <v>28</v>
+      </c>
+      <c r="F193" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B194">
-        <f t="shared" si="2"/>
-        <v>29</v>
+      <c r="B194" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C194">
         <v>91.9</v>
@@ -4012,15 +5582,23 @@
       <c r="D194">
         <v>97</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194">
+        <f>LEN(A194)</f>
+        <v>29</v>
+      </c>
+      <c r="F194" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B195">
-        <f t="shared" ref="B195:B258" si="4">LEN(A195)</f>
-        <v>30</v>
+      <c r="B195" t="str">
+        <f t="shared" ref="B195:B258" si="7">_xlfn.CONCAT(A195,"[MGB]")</f>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C195">
         <v>92.8</v>
@@ -4028,15 +5606,23 @@
       <c r="D195">
         <v>98</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195">
+        <f>LEN(A195)</f>
+        <v>30</v>
+      </c>
+      <c r="F195" s="2">
+        <f t="shared" ref="F195:F258" si="8">(2 * LEN(A195) - LEN(SUBSTITUTE(A195, "G","")) - LEN(SUBSTITUTE(A195, "C",""))) / LEN(A195)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B196">
-        <f t="shared" si="4"/>
-        <v>31</v>
+      <c r="B196" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C196">
         <v>93.6</v>
@@ -4044,15 +5630,23 @@
       <c r="D196">
         <v>98</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196">
+        <f>LEN(A196)</f>
+        <v>31</v>
+      </c>
+      <c r="F196" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B197">
-        <f t="shared" si="4"/>
-        <v>32</v>
+      <c r="B197" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C197">
         <v>94.3</v>
@@ -4060,15 +5654,23 @@
       <c r="D197">
         <v>99</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197">
+        <f>LEN(A197)</f>
+        <v>32</v>
+      </c>
+      <c r="F197" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B198">
-        <f t="shared" si="4"/>
-        <v>33</v>
+      <c r="B198" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C198">
         <v>95.1</v>
@@ -4076,15 +5678,23 @@
       <c r="D198">
         <v>99</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198">
+        <f>LEN(A198)</f>
+        <v>33</v>
+      </c>
+      <c r="F198" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B199">
-        <f t="shared" si="4"/>
-        <v>34</v>
+      <c r="B199" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C199">
         <v>95.7</v>
@@ -4092,15 +5702,23 @@
       <c r="D199">
         <v>100</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199">
+        <f>LEN(A199)</f>
+        <v>34</v>
+      </c>
+      <c r="F199" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B200">
-        <f t="shared" si="4"/>
-        <v>35</v>
+      <c r="B200" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C200">
         <v>96.4</v>
@@ -4108,15 +5726,23 @@
       <c r="D200">
         <v>100</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200">
+        <f>LEN(A200)</f>
+        <v>35</v>
+      </c>
+      <c r="F200" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B201">
-        <f t="shared" si="4"/>
-        <v>36</v>
+      <c r="B201" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C201">
         <v>97</v>
@@ -4124,15 +5750,23 @@
       <c r="D201">
         <v>101</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201">
+        <f>LEN(A201)</f>
+        <v>36</v>
+      </c>
+      <c r="F201" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B202">
-        <f t="shared" si="4"/>
-        <v>37</v>
+      <c r="B202" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C202">
         <v>97.5</v>
@@ -4140,15 +5774,23 @@
       <c r="D202">
         <v>101</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202">
+        <f>LEN(A202)</f>
+        <v>37</v>
+      </c>
+      <c r="F202" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B203">
-        <f t="shared" si="4"/>
-        <v>38</v>
+      <c r="B203" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C203">
         <v>98.1</v>
@@ -4156,15 +5798,23 @@
       <c r="D203">
         <v>102</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203">
+        <f>LEN(A203)</f>
+        <v>38</v>
+      </c>
+      <c r="F203" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B204">
-        <f t="shared" si="4"/>
-        <v>39</v>
+      <c r="B204" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C204">
         <v>98.6</v>
@@ -4172,15 +5822,23 @@
       <c r="D204">
         <v>102</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204">
+        <f>LEN(A204)</f>
+        <v>39</v>
+      </c>
+      <c r="F204" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
-      <c r="B205">
-        <f t="shared" si="4"/>
-        <v>40</v>
+      <c r="B205" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C205">
         <v>99.1</v>
@@ -4188,14 +5846,22 @@
       <c r="D205">
         <v>103</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205">
+        <f>LEN(A205)</f>
+        <v>40</v>
+      </c>
+      <c r="F205" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>178</v>
       </c>
-      <c r="B206">
-        <f t="shared" si="4"/>
-        <v>10</v>
+      <c r="B206" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGG[MGB]</v>
       </c>
       <c r="C206">
         <v>45.6</v>
@@ -4203,15 +5869,23 @@
       <c r="D206">
         <v>61</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206">
+        <f>LEN(A206)</f>
+        <v>10</v>
+      </c>
+      <c r="F206" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f>_xlfn.CONCAT(A206,"G")</f>
         <v>GGGGGGGGGGG</v>
       </c>
-      <c r="B207">
-        <f t="shared" si="4"/>
-        <v>11</v>
+      <c r="B207" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C207">
         <v>51.7</v>
@@ -4219,15 +5893,23 @@
       <c r="D207">
         <v>66</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207">
+        <f>LEN(A207)</f>
+        <v>11</v>
+      </c>
+      <c r="F207" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
-        <f t="shared" ref="A208:A236" si="5">_xlfn.CONCAT(A207,"G")</f>
+        <f t="shared" ref="A208:A236" si="9">_xlfn.CONCAT(A207,"G")</f>
         <v>GGGGGGGGGGGG</v>
       </c>
-      <c r="B208">
-        <f t="shared" si="4"/>
-        <v>12</v>
+      <c r="B208" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C208">
         <v>56.9</v>
@@ -4235,15 +5917,23 @@
       <c r="D208">
         <v>69</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208">
+        <f>LEN(A208)</f>
+        <v>12</v>
+      </c>
+      <c r="F208" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGG</v>
       </c>
-      <c r="B209">
-        <f t="shared" si="4"/>
-        <v>13</v>
+      <c r="B209" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C209">
         <v>61.3</v>
@@ -4251,15 +5941,23 @@
       <c r="D209">
         <v>73</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209">
+        <f>LEN(A209)</f>
+        <v>13</v>
+      </c>
+      <c r="F209" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGG</v>
       </c>
-      <c r="B210">
-        <f t="shared" si="4"/>
-        <v>14</v>
+      <c r="B210" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C210">
         <v>65.2</v>
@@ -4267,15 +5965,23 @@
       <c r="D210">
         <v>75</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210">
+        <f>LEN(A210)</f>
+        <v>14</v>
+      </c>
+      <c r="F210" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B211">
-        <f t="shared" si="4"/>
-        <v>15</v>
+      <c r="B211" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C211">
         <v>68.5</v>
@@ -4283,15 +5989,23 @@
       <c r="D211">
         <v>78</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211">
+        <f>LEN(A211)</f>
+        <v>15</v>
+      </c>
+      <c r="F211" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B212">
-        <f t="shared" si="4"/>
-        <v>16</v>
+      <c r="B212" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C212">
         <v>71.5</v>
@@ -4299,15 +6013,23 @@
       <c r="D212">
         <v>80</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212">
+        <f>LEN(A212)</f>
+        <v>16</v>
+      </c>
+      <c r="F212" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B213">
-        <f t="shared" si="4"/>
-        <v>17</v>
+      <c r="B213" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C213">
         <v>74.099999999999994</v>
@@ -4315,15 +6037,23 @@
       <c r="D213">
         <v>82</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213">
+        <f>LEN(A213)</f>
+        <v>17</v>
+      </c>
+      <c r="F213" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B214">
-        <f t="shared" si="4"/>
-        <v>18</v>
+      <c r="B214" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C214">
         <v>76.400000000000006</v>
@@ -4331,15 +6061,23 @@
       <c r="D214">
         <v>84</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214">
+        <f>LEN(A214)</f>
+        <v>18</v>
+      </c>
+      <c r="F214" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B215">
-        <f t="shared" si="4"/>
-        <v>19</v>
+      <c r="B215" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C215">
         <v>78.5</v>
@@ -4347,15 +6085,23 @@
       <c r="D215">
         <v>86</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215">
+        <f>LEN(A215)</f>
+        <v>19</v>
+      </c>
+      <c r="F215" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B216">
-        <f t="shared" si="4"/>
-        <v>20</v>
+      <c r="B216" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C216">
         <v>80.5</v>
@@ -4363,15 +6109,23 @@
       <c r="D216">
         <v>87</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E216">
+        <f>LEN(A216)</f>
+        <v>20</v>
+      </c>
+      <c r="F216" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B217">
-        <f t="shared" si="4"/>
-        <v>21</v>
+      <c r="B217" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C217">
         <v>82.2</v>
@@ -4379,15 +6133,23 @@
       <c r="D217">
         <v>88</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217">
+        <f>LEN(A217)</f>
+        <v>21</v>
+      </c>
+      <c r="F217" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B218">
-        <f t="shared" si="4"/>
-        <v>22</v>
+      <c r="B218" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C218">
         <v>83.8</v>
@@ -4395,15 +6157,23 @@
       <c r="D218">
         <v>90</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218">
+        <f>LEN(A218)</f>
+        <v>22</v>
+      </c>
+      <c r="F218" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B219">
-        <f t="shared" si="4"/>
-        <v>23</v>
+      <c r="B219" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C219">
         <v>85.2</v>
@@ -4411,15 +6181,23 @@
       <c r="D219">
         <v>91</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219">
+        <f>LEN(A219)</f>
+        <v>23</v>
+      </c>
+      <c r="F219" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B220">
-        <f t="shared" si="4"/>
-        <v>24</v>
+      <c r="B220" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C220">
         <v>86.6</v>
@@ -4427,15 +6205,23 @@
       <c r="D220">
         <v>92</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220">
+        <f>LEN(A220)</f>
+        <v>24</v>
+      </c>
+      <c r="F220" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B221">
-        <f t="shared" si="4"/>
-        <v>25</v>
+      <c r="B221" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C221">
         <v>87.8</v>
@@ -4443,15 +6229,23 @@
       <c r="D221">
         <v>93</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221">
+        <f>LEN(A221)</f>
+        <v>25</v>
+      </c>
+      <c r="F221" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B222">
-        <f t="shared" si="4"/>
-        <v>26</v>
+      <c r="B222" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C222">
         <v>88.9</v>
@@ -4459,15 +6253,23 @@
       <c r="D222">
         <v>94</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E222">
+        <f>LEN(A222)</f>
+        <v>26</v>
+      </c>
+      <c r="F222" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B223">
-        <f t="shared" si="4"/>
-        <v>27</v>
+      <c r="B223" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C223">
         <v>90</v>
@@ -4475,15 +6277,23 @@
       <c r="D223">
         <v>95</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E223">
+        <f>LEN(A223)</f>
+        <v>27</v>
+      </c>
+      <c r="F223" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B224">
-        <f t="shared" si="4"/>
-        <v>28</v>
+      <c r="B224" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C224">
         <v>91</v>
@@ -4491,15 +6301,23 @@
       <c r="D224">
         <v>95</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224">
+        <f>LEN(A224)</f>
+        <v>28</v>
+      </c>
+      <c r="F224" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B225">
-        <f t="shared" si="4"/>
-        <v>29</v>
+      <c r="B225" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C225">
         <v>91.9</v>
@@ -4507,15 +6325,23 @@
       <c r="D225">
         <v>96</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225">
+        <f>LEN(A225)</f>
+        <v>29</v>
+      </c>
+      <c r="F225" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B226">
-        <f t="shared" si="4"/>
-        <v>30</v>
+      <c r="B226" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C226">
         <v>92.8</v>
@@ -4523,15 +6349,23 @@
       <c r="D226">
         <v>97</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E226">
+        <f>LEN(A226)</f>
+        <v>30</v>
+      </c>
+      <c r="F226" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B227">
-        <f t="shared" si="4"/>
-        <v>31</v>
+      <c r="B227" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C227">
         <v>93.6</v>
@@ -4539,15 +6373,23 @@
       <c r="D227">
         <v>98</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E227">
+        <f>LEN(A227)</f>
+        <v>31</v>
+      </c>
+      <c r="F227" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B228">
-        <f t="shared" si="4"/>
-        <v>32</v>
+      <c r="B228" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C228">
         <v>94.3</v>
@@ -4555,15 +6397,23 @@
       <c r="D228">
         <v>98</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E228">
+        <f>LEN(A228)</f>
+        <v>32</v>
+      </c>
+      <c r="F228" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B229">
-        <f t="shared" si="4"/>
-        <v>33</v>
+      <c r="B229" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C229">
         <v>95.1</v>
@@ -4571,15 +6421,23 @@
       <c r="D229">
         <v>99</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E229">
+        <f>LEN(A229)</f>
+        <v>33</v>
+      </c>
+      <c r="F229" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B230">
-        <f t="shared" si="4"/>
-        <v>34</v>
+      <c r="B230" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C230">
         <v>95.7</v>
@@ -4587,15 +6445,23 @@
       <c r="D230">
         <v>99</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E230">
+        <f>LEN(A230)</f>
+        <v>34</v>
+      </c>
+      <c r="F230" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B231">
-        <f t="shared" si="4"/>
-        <v>35</v>
+      <c r="B231" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C231">
         <v>96.4</v>
@@ -4603,15 +6469,23 @@
       <c r="D231">
         <v>100</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E231">
+        <f>LEN(A231)</f>
+        <v>35</v>
+      </c>
+      <c r="F231" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B232">
-        <f t="shared" si="4"/>
-        <v>36</v>
+      <c r="B232" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C232">
         <v>97</v>
@@ -4619,15 +6493,23 @@
       <c r="D232">
         <v>100</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232">
+        <f>LEN(A232)</f>
+        <v>36</v>
+      </c>
+      <c r="F232" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B233">
-        <f t="shared" si="4"/>
-        <v>37</v>
+      <c r="B233" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C233">
         <v>97.5</v>
@@ -4635,15 +6517,23 @@
       <c r="D233">
         <v>101</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E233">
+        <f>LEN(A233)</f>
+        <v>37</v>
+      </c>
+      <c r="F233" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B234">
-        <f t="shared" si="4"/>
-        <v>38</v>
+      <c r="B234" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C234">
         <v>98.1</v>
@@ -4651,15 +6541,23 @@
       <c r="D234">
         <v>101</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E234">
+        <f>LEN(A234)</f>
+        <v>38</v>
+      </c>
+      <c r="F234" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B235">
-        <f t="shared" si="4"/>
-        <v>39</v>
+      <c r="B235" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C235">
         <v>98.6</v>
@@ -4667,15 +6565,23 @@
       <c r="D235">
         <v>102</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E235">
+        <f>LEN(A235)</f>
+        <v>39</v>
+      </c>
+      <c r="F235" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
-      <c r="B236">
-        <f t="shared" si="4"/>
-        <v>40</v>
+      <c r="B236" t="str">
+        <f t="shared" si="7"/>
+        <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C236">
         <v>99.1</v>
@@ -4683,14 +6589,22 @@
       <c r="D236">
         <v>102</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E236">
+        <f>LEN(A236)</f>
+        <v>40</v>
+      </c>
+      <c r="F236" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>179</v>
       </c>
-      <c r="B237">
-        <f t="shared" si="4"/>
-        <v>10</v>
+      <c r="B237" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTT[MGB]</v>
       </c>
       <c r="C237">
         <v>11.4</v>
@@ -4698,14 +6612,22 @@
       <c r="D237">
         <v>44</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E237">
+        <f>LEN(A237)</f>
+        <v>10</v>
+      </c>
+      <c r="F237" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>180</v>
       </c>
-      <c r="B238">
-        <f t="shared" si="4"/>
-        <v>11</v>
+      <c r="B238" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C238">
         <v>17.399999999999999</v>
@@ -4713,14 +6635,22 @@
       <c r="D238">
         <v>47</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E238">
+        <f>LEN(A238)</f>
+        <v>11</v>
+      </c>
+      <c r="F238" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>181</v>
       </c>
-      <c r="B239">
-        <f t="shared" si="4"/>
-        <v>12</v>
+      <c r="B239" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C239">
         <v>22.5</v>
@@ -4728,14 +6658,22 @@
       <c r="D239">
         <v>49</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239">
+        <f>LEN(A239)</f>
+        <v>12</v>
+      </c>
+      <c r="F239" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>182</v>
       </c>
-      <c r="B240">
-        <f t="shared" si="4"/>
-        <v>13</v>
+      <c r="B240" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C240">
         <v>26.9</v>
@@ -4743,14 +6681,22 @@
       <c r="D240">
         <v>52</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E240">
+        <f>LEN(A240)</f>
+        <v>13</v>
+      </c>
+      <c r="F240" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>183</v>
       </c>
-      <c r="B241">
-        <f t="shared" si="4"/>
-        <v>14</v>
+      <c r="B241" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C241">
         <v>30.7</v>
@@ -4758,14 +6704,22 @@
       <c r="D241">
         <v>54</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E241">
+        <f>LEN(A241)</f>
+        <v>14</v>
+      </c>
+      <c r="F241" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>184</v>
       </c>
-      <c r="B242">
-        <f t="shared" si="4"/>
-        <v>15</v>
+      <c r="B242" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C242">
         <v>34</v>
@@ -4773,14 +6727,22 @@
       <c r="D242">
         <v>55</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242">
+        <f>LEN(A242)</f>
+        <v>15</v>
+      </c>
+      <c r="F242" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>185</v>
       </c>
-      <c r="B243">
-        <f t="shared" si="4"/>
-        <v>16</v>
+      <c r="B243" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C243">
         <v>36.9</v>
@@ -4788,14 +6750,22 @@
       <c r="D243">
         <v>57</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E243">
+        <f>LEN(A243)</f>
+        <v>16</v>
+      </c>
+      <c r="F243" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>186</v>
       </c>
-      <c r="B244">
-        <f t="shared" si="4"/>
-        <v>17</v>
+      <c r="B244" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C244">
         <v>39.5</v>
@@ -4803,14 +6773,22 @@
       <c r="D244">
         <v>58</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E244">
+        <f>LEN(A244)</f>
+        <v>17</v>
+      </c>
+      <c r="F244" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>187</v>
       </c>
-      <c r="B245">
-        <f t="shared" si="4"/>
-        <v>18</v>
+      <c r="B245" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C245">
         <v>41.9</v>
@@ -4818,14 +6796,22 @@
       <c r="D245">
         <v>59</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E245">
+        <f>LEN(A245)</f>
+        <v>18</v>
+      </c>
+      <c r="F245" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>188</v>
       </c>
-      <c r="B246">
-        <f t="shared" si="4"/>
-        <v>19</v>
+      <c r="B246" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C246">
         <v>44</v>
@@ -4833,14 +6819,22 @@
       <c r="D246">
         <v>60</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E246">
+        <f>LEN(A246)</f>
+        <v>19</v>
+      </c>
+      <c r="F246" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>189</v>
       </c>
-      <c r="B247">
-        <f t="shared" si="4"/>
-        <v>20</v>
+      <c r="B247" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C247">
         <v>45.9</v>
@@ -4848,14 +6842,22 @@
       <c r="D247">
         <v>61</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E247">
+        <f>LEN(A247)</f>
+        <v>20</v>
+      </c>
+      <c r="F247" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>190</v>
       </c>
-      <c r="B248">
-        <f t="shared" si="4"/>
-        <v>21</v>
+      <c r="B248" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C248">
         <v>47.6</v>
@@ -4863,14 +6865,22 @@
       <c r="D248">
         <v>62</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E248">
+        <f>LEN(A248)</f>
+        <v>21</v>
+      </c>
+      <c r="F248" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>191</v>
       </c>
-      <c r="B249">
-        <f t="shared" si="4"/>
-        <v>22</v>
+      <c r="B249" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C249">
         <v>49.2</v>
@@ -4878,14 +6888,22 @@
       <c r="D249">
         <v>63</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E249">
+        <f>LEN(A249)</f>
+        <v>22</v>
+      </c>
+      <c r="F249" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>192</v>
       </c>
-      <c r="B250">
-        <f t="shared" si="4"/>
-        <v>23</v>
+      <c r="B250" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C250">
         <v>50.6</v>
@@ -4893,14 +6911,22 @@
       <c r="D250">
         <v>64</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E250">
+        <f>LEN(A250)</f>
+        <v>23</v>
+      </c>
+      <c r="F250" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>193</v>
       </c>
-      <c r="B251">
-        <f t="shared" si="4"/>
-        <v>24</v>
+      <c r="B251" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C251">
         <v>52</v>
@@ -4908,14 +6934,22 @@
       <c r="D251">
         <v>64</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E251">
+        <f>LEN(A251)</f>
+        <v>24</v>
+      </c>
+      <c r="F251" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>194</v>
       </c>
-      <c r="B252">
-        <f t="shared" si="4"/>
-        <v>25</v>
+      <c r="B252" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C252">
         <v>53.2</v>
@@ -4923,14 +6957,22 @@
       <c r="D252">
         <v>65</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E252">
+        <f>LEN(A252)</f>
+        <v>25</v>
+      </c>
+      <c r="F252" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>195</v>
       </c>
-      <c r="B253">
-        <f t="shared" si="4"/>
-        <v>26</v>
+      <c r="B253" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C253">
         <v>54.3</v>
@@ -4938,14 +6980,22 @@
       <c r="D253">
         <v>66</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E253">
+        <f>LEN(A253)</f>
+        <v>26</v>
+      </c>
+      <c r="F253" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>196</v>
       </c>
-      <c r="B254">
-        <f t="shared" si="4"/>
-        <v>27</v>
+      <c r="B254" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C254">
         <v>55.4</v>
@@ -4953,14 +7003,22 @@
       <c r="D254">
         <v>66</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E254">
+        <f>LEN(A254)</f>
+        <v>27</v>
+      </c>
+      <c r="F254" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>197</v>
       </c>
-      <c r="B255">
-        <f t="shared" si="4"/>
-        <v>28</v>
+      <c r="B255" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C255">
         <v>56.4</v>
@@ -4968,14 +7026,22 @@
       <c r="D255">
         <v>67</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E255">
+        <f>LEN(A255)</f>
+        <v>28</v>
+      </c>
+      <c r="F255" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>198</v>
       </c>
-      <c r="B256">
-        <f t="shared" si="4"/>
-        <v>29</v>
+      <c r="B256" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C256">
         <v>57.3</v>
@@ -4983,14 +7049,22 @@
       <c r="D256">
         <v>67</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E256">
+        <f>LEN(A256)</f>
+        <v>29</v>
+      </c>
+      <c r="F256" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>199</v>
       </c>
-      <c r="B257">
-        <f t="shared" si="4"/>
-        <v>30</v>
+      <c r="B257" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C257">
         <v>58.2</v>
@@ -4998,14 +7072,22 @@
       <c r="D257">
         <v>67</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E257">
+        <f>LEN(A257)</f>
+        <v>30</v>
+      </c>
+      <c r="F257" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>200</v>
       </c>
-      <c r="B258">
-        <f t="shared" si="4"/>
-        <v>31</v>
+      <c r="B258" t="str">
+        <f t="shared" si="7"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C258">
         <v>59</v>
@@ -5013,14 +7095,22 @@
       <c r="D258">
         <v>68</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E258">
+        <f>LEN(A258)</f>
+        <v>31</v>
+      </c>
+      <c r="F258" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>201</v>
       </c>
-      <c r="B259">
-        <f t="shared" ref="B259:B267" si="6">LEN(A259)</f>
-        <v>32</v>
+      <c r="B259" t="str">
+        <f t="shared" ref="B259:B267" si="10">_xlfn.CONCAT(A259,"[MGB]")</f>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C259">
         <v>59.7</v>
@@ -5028,14 +7118,22 @@
       <c r="D259">
         <v>68</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E259">
+        <f>LEN(A259)</f>
+        <v>32</v>
+      </c>
+      <c r="F259" s="2">
+        <f t="shared" ref="F259:F267" si="11">(2 * LEN(A259) - LEN(SUBSTITUTE(A259, "G","")) - LEN(SUBSTITUTE(A259, "C",""))) / LEN(A259)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>202</v>
       </c>
-      <c r="B260">
-        <f t="shared" si="6"/>
-        <v>33</v>
+      <c r="B260" t="str">
+        <f t="shared" si="10"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C260">
         <v>60.4</v>
@@ -5043,14 +7141,22 @@
       <c r="D260">
         <v>69</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E260">
+        <f>LEN(A260)</f>
+        <v>33</v>
+      </c>
+      <c r="F260" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>203</v>
       </c>
-      <c r="B261">
-        <f t="shared" si="6"/>
-        <v>34</v>
+      <c r="B261" t="str">
+        <f t="shared" si="10"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C261">
         <v>61.1</v>
@@ -5058,14 +7164,22 @@
       <c r="D261">
         <v>69</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E261">
+        <f>LEN(A261)</f>
+        <v>34</v>
+      </c>
+      <c r="F261" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>204</v>
       </c>
-      <c r="B262">
-        <f t="shared" si="6"/>
-        <v>35</v>
+      <c r="B262" t="str">
+        <f t="shared" si="10"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C262">
         <v>61.8</v>
@@ -5073,14 +7187,22 @@
       <c r="D262">
         <v>69</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E262">
+        <f>LEN(A262)</f>
+        <v>35</v>
+      </c>
+      <c r="F262" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>205</v>
       </c>
-      <c r="B263">
-        <f t="shared" si="6"/>
-        <v>36</v>
+      <c r="B263" t="str">
+        <f t="shared" si="10"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C263">
         <v>62.4</v>
@@ -5088,14 +7210,22 @@
       <c r="D263">
         <v>70</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E263">
+        <f>LEN(A263)</f>
+        <v>36</v>
+      </c>
+      <c r="F263" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>206</v>
       </c>
-      <c r="B264">
-        <f t="shared" si="6"/>
-        <v>37</v>
+      <c r="B264" t="str">
+        <f t="shared" si="10"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C264">
         <v>62.9</v>
@@ -5103,14 +7233,22 @@
       <c r="D264">
         <v>70</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E264">
+        <f>LEN(A264)</f>
+        <v>37</v>
+      </c>
+      <c r="F264" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>207</v>
       </c>
-      <c r="B265">
-        <f t="shared" si="6"/>
-        <v>38</v>
+      <c r="B265" t="str">
+        <f t="shared" si="10"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C265">
         <v>63.5</v>
@@ -5118,14 +7256,22 @@
       <c r="D265">
         <v>70</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E265">
+        <f>LEN(A265)</f>
+        <v>38</v>
+      </c>
+      <c r="F265" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>208</v>
       </c>
-      <c r="B266">
-        <f t="shared" si="6"/>
-        <v>39</v>
+      <c r="B266" t="str">
+        <f t="shared" si="10"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C266">
         <v>64</v>
@@ -5133,20 +7279,36 @@
       <c r="D266">
         <v>70</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E266">
+        <f>LEN(A266)</f>
+        <v>39</v>
+      </c>
+      <c r="F266" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>209</v>
       </c>
-      <c r="B267">
-        <f t="shared" si="6"/>
-        <v>40</v>
+      <c r="B267" t="str">
+        <f t="shared" si="10"/>
+        <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C267">
         <v>64.5</v>
       </c>
       <c r="D267">
         <v>71</v>
+      </c>
+      <c r="E267">
+        <f>LEN(A267)</f>
+        <v>40</v>
+      </c>
+      <c r="F267" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5156,18 +7318,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B230771-1C2B-4254-A195-4B5F4F8270F2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/datasets/validate_primer_express.xlsx
+++ b/datasets/validate_primer_express.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xkvama\Desktop\py\helper_functions\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB937F-B16D-43D1-98F4-B3DC68B8B9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E266A285-7EF2-4F90-87DC-23D508B3A0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C8F2FE9-4EA4-4A12-9BF3-F271196AD33E}"/>
   </bookViews>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E11871F-674E-4BE5-9A72-266CCE71020B}">
   <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1148,7 @@
         <v>44</v>
       </c>
       <c r="E2">
-        <f>LEN(A2)</f>
+        <f t="shared" ref="E2:E65" si="0">LEN(A2)</f>
         <v>10</v>
       </c>
       <c r="F2" s="2">
@@ -1161,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">_xlfn.CONCAT(A3,"[MGB]")</f>
+        <f t="shared" ref="B3:B66" si="1">_xlfn.CONCAT(A3,"[MGB]")</f>
         <v>TAATATTTATT[MGB]</v>
       </c>
       <c r="C3">
@@ -1171,11 +1171,11 @@
         <v>43</v>
       </c>
       <c r="E3">
-        <f>LEN(A3)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="1">(2 * LEN(A3) - LEN(SUBSTITUTE(A3, "G","")) - LEN(SUBSTITUTE(A3, "C",""))) / LEN(A3)</f>
+        <f t="shared" ref="F3:F66" si="2">(2 * LEN(A3) - LEN(SUBSTITUTE(A3, "G","")) - LEN(SUBSTITUTE(A3, "C",""))) / LEN(A3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTAATTTATTA[MGB]</v>
       </c>
       <c r="C4">
@@ -1194,11 +1194,11 @@
         <v>46</v>
       </c>
       <c r="E4">
-        <f>LEN(A4)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTAATATTTAAAA[MGB]</v>
       </c>
       <c r="C5">
@@ -1217,11 +1217,11 @@
         <v>49</v>
       </c>
       <c r="E5">
-        <f>LEN(A5)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTTATATATAAAA[MGB]</v>
       </c>
       <c r="C6">
@@ -1240,11 +1240,11 @@
         <v>50</v>
       </c>
       <c r="E6">
-        <f>LEN(A6)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AATAATAAATTATAT[MGB]</v>
       </c>
       <c r="C7">
@@ -1263,11 +1263,11 @@
         <v>52</v>
       </c>
       <c r="E7">
-        <f>LEN(A7)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AAATTAATTTTAATTA[MGB]</v>
       </c>
       <c r="C8">
@@ -1286,11 +1286,11 @@
         <v>53</v>
       </c>
       <c r="E8">
-        <f>LEN(A8)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TAATTTAATATTTATTT[MGB]</v>
       </c>
       <c r="C9">
@@ -1309,11 +1309,11 @@
         <v>55</v>
       </c>
       <c r="E9">
-        <f>LEN(A9)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TATTTTTATTATTTTAAA[MGB]</v>
       </c>
       <c r="C10">
@@ -1332,11 +1332,11 @@
         <v>56</v>
       </c>
       <c r="E10">
-        <f>LEN(A10)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AATATATTAAATTTTATAT[MGB]</v>
       </c>
       <c r="C11">
@@ -1355,11 +1355,11 @@
         <v>55</v>
       </c>
       <c r="E11">
-        <f>LEN(A11)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TATTATTATTTAATATTATT[MGB]</v>
       </c>
       <c r="C12">
@@ -1378,11 +1378,11 @@
         <v>57</v>
       </c>
       <c r="E12">
-        <f>LEN(A12)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ATTATAAAATAAATAATATTA[MGB]</v>
       </c>
       <c r="C13">
@@ -1401,11 +1401,11 @@
         <v>59</v>
       </c>
       <c r="E13">
-        <f>LEN(A13)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AAATTATATAATATTAATTTAA[MGB]</v>
       </c>
       <c r="C14">
@@ -1424,11 +1424,11 @@
         <v>60</v>
       </c>
       <c r="E14">
-        <f>LEN(A14)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTATATATTATTTATTATTATA[MGB]</v>
       </c>
       <c r="C15">
@@ -1447,11 +1447,11 @@
         <v>58</v>
       </c>
       <c r="E15">
-        <f>LEN(A15)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTATTAATTTATTATATATTATTT[MGB]</v>
       </c>
       <c r="C16">
@@ -1470,11 +1470,11 @@
         <v>60</v>
       </c>
       <c r="E16">
-        <f>LEN(A16)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTATTATAAAAAAATATTATTTAT[MGB]</v>
       </c>
       <c r="C17">
@@ -1493,11 +1493,11 @@
         <v>61</v>
       </c>
       <c r="E17">
-        <f>LEN(A17)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AATATATAAAATATATAAATTTATTT[MGB]</v>
       </c>
       <c r="C18">
@@ -1516,11 +1516,11 @@
         <v>62</v>
       </c>
       <c r="E18">
-        <f>LEN(A18)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTTTATTATTTATTTTATTTTTATTT[MGB]</v>
       </c>
       <c r="C19">
@@ -1539,11 +1539,11 @@
         <v>63</v>
       </c>
       <c r="E19">
-        <f>LEN(A19)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTTATTATATATTATTTTTATTTAAAA[MGB]</v>
       </c>
       <c r="C20">
@@ -1562,11 +1562,11 @@
         <v>63</v>
       </c>
       <c r="E20">
-        <f>LEN(A20)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AAATAAATTATAAAAAATTAAAATAAAAA[MGB]</v>
       </c>
       <c r="C21">
@@ -1585,11 +1585,11 @@
         <v>66</v>
       </c>
       <c r="E21">
-        <f>LEN(A21)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ATATTTTTTATTTTTTTTTTTATATAATTT[MGB]</v>
       </c>
       <c r="C22">
@@ -1608,11 +1608,11 @@
         <v>66</v>
       </c>
       <c r="E22">
-        <f>LEN(A22)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AATTTAAAATATAATTATATTATATTATTAT[MGB]</v>
       </c>
       <c r="C23">
@@ -1631,11 +1631,11 @@
         <v>63</v>
       </c>
       <c r="E23">
-        <f>LEN(A23)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTATTATATATTATATTATTATATTATATTA[MGB]</v>
       </c>
       <c r="C24">
@@ -1654,11 +1654,11 @@
         <v>62</v>
       </c>
       <c r="E24">
-        <f>LEN(A24)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTTATTTATTAAAATTTATTATTTATATTATA[MGB]</v>
       </c>
       <c r="C25">
@@ -1677,11 +1677,11 @@
         <v>64</v>
       </c>
       <c r="E25">
-        <f>LEN(A25)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTTATTATTATTATATTATTATATAAAATATTA[MGB]</v>
       </c>
       <c r="C26">
@@ -1700,11 +1700,11 @@
         <v>65</v>
       </c>
       <c r="E26">
-        <f>LEN(A26)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTTTATTATAAAAAATAAATTTATTTTTTTAAAA[MGB]</v>
       </c>
       <c r="C27">
@@ -1723,11 +1723,11 @@
         <v>66</v>
       </c>
       <c r="E27">
-        <f>LEN(A27)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AAATATTTAATATTAAATATTTAAAATTTAATTAAT[MGB]</v>
       </c>
       <c r="C28">
@@ -1746,11 +1746,11 @@
         <v>67</v>
       </c>
       <c r="E28">
-        <f>LEN(A28)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTAATTATTTAAATATTTAAAATATTTATTTAAAAT[MGB]</v>
       </c>
       <c r="C29">
@@ -1769,11 +1769,11 @@
         <v>66</v>
       </c>
       <c r="E29">
-        <f>LEN(A29)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTTTAATTATTTTAATTTTTATAAAAATTTAATTATT[MGB]</v>
       </c>
       <c r="C30">
@@ -1792,11 +1792,11 @@
         <v>68</v>
       </c>
       <c r="E30">
-        <f>LEN(A30)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AATTTAAATTTTTTTAATTATTATTTATTTTTATAAAAA[MGB]</v>
       </c>
       <c r="C31">
@@ -1815,11 +1815,11 @@
         <v>68</v>
       </c>
       <c r="E31">
-        <f>LEN(A31)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTTATATTTTATAATATTTTATAAAATATAAAATTATTAA[MGB]</v>
       </c>
       <c r="C32">
@@ -1838,11 +1838,11 @@
         <v>66</v>
       </c>
       <c r="E32">
-        <f>LEN(A32)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AACAAGACGT[MGB]</v>
       </c>
       <c r="C33">
@@ -1861,11 +1861,11 @@
         <v>47</v>
       </c>
       <c r="E33">
-        <f>LEN(A33)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GGTTCTCGTT[MGB]</v>
       </c>
       <c r="C34">
@@ -1884,11 +1884,11 @@
         <v>50</v>
       </c>
       <c r="E34">
-        <f>LEN(A34)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TGTCTCATAAT[MGB]</v>
       </c>
       <c r="C35">
@@ -1907,11 +1907,11 @@
         <v>48</v>
       </c>
       <c r="E35">
-        <f>LEN(A35)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27272727272727271</v>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GCCTGACTTAC[MGB]</v>
       </c>
       <c r="C36">
@@ -1930,11 +1930,11 @@
         <v>59</v>
       </c>
       <c r="E36">
-        <f>LEN(A36)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54545454545454541</v>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GTGAGATTGAT[MGB]</v>
       </c>
       <c r="C37">
@@ -1953,11 +1953,11 @@
         <v>55</v>
       </c>
       <c r="E37">
-        <f>LEN(A37)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36363636363636365</v>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TGGAGAGCAGCA[MGB]</v>
       </c>
       <c r="C38">
@@ -1976,11 +1976,11 @@
         <v>57</v>
       </c>
       <c r="E38">
-        <f>LEN(A38)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CTATGTGTTCCGC[MGB]</v>
       </c>
       <c r="C39">
@@ -1999,11 +1999,11 @@
         <v>60</v>
       </c>
       <c r="E39">
-        <f>LEN(A39)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AGAATCAACAACT[MGB]</v>
       </c>
       <c r="C40">
@@ -2022,11 +2022,11 @@
         <v>57</v>
       </c>
       <c r="E40">
-        <f>LEN(A40)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30769230769230771</v>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CCAATGTACACTT[MGB]</v>
       </c>
       <c r="C41">
@@ -2045,11 +2045,11 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <f>LEN(A41)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38461538461538464</v>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TGTACAAGTAACCT[MGB]</v>
       </c>
       <c r="C42">
@@ -2068,11 +2068,11 @@
         <v>57</v>
       </c>
       <c r="E42">
-        <f>LEN(A42)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35714285714285715</v>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AAATAGCAGATGTA[MGB]</v>
       </c>
       <c r="C43">
@@ -2091,11 +2091,11 @@
         <v>57</v>
       </c>
       <c r="E43">
-        <f>LEN(A43)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ACGGCCACGCCCAC[MGB]</v>
       </c>
       <c r="C44">
@@ -2114,11 +2114,11 @@
         <v>71</v>
       </c>
       <c r="E44">
-        <f>LEN(A44)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7857142857142857</v>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GGGATATTACGTTAC[MGB]</v>
       </c>
       <c r="C45">
@@ -2137,11 +2137,11 @@
         <v>59</v>
       </c>
       <c r="E45">
-        <f>LEN(A45)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CGACGCACGTAGGCA[MGB]</v>
       </c>
       <c r="C46">
@@ -2160,11 +2160,11 @@
         <v>70</v>
       </c>
       <c r="E46">
-        <f>LEN(A46)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ACTACCTAAGATCTAC[MGB]</v>
       </c>
       <c r="C47">
@@ -2183,11 +2183,11 @@
         <v>64</v>
       </c>
       <c r="E47">
-        <f>LEN(A47)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CAATGGCGCGTCGTGAA[MGB]</v>
       </c>
       <c r="C48">
@@ -2206,11 +2206,11 @@
         <v>71</v>
       </c>
       <c r="E48">
-        <f>LEN(A48)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58823529411764708</v>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TGTGTTAATGGAACAGA[MGB]</v>
       </c>
       <c r="C49">
@@ -2229,11 +2229,11 @@
         <v>64</v>
       </c>
       <c r="E49">
-        <f>LEN(A49)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35294117647058826</v>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CGACGCTTCTTCTCCTG[MGB]</v>
       </c>
       <c r="C50">
@@ -2252,11 +2252,11 @@
         <v>71</v>
       </c>
       <c r="E50">
-        <f>LEN(A50)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58823529411764708</v>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TAGCAACACTGGCGCGA[MGB]</v>
       </c>
       <c r="C51">
@@ -2275,11 +2275,11 @@
         <v>68</v>
       </c>
       <c r="E51">
-        <f>LEN(A51)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58823529411764708</v>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TCGTCATAAAACCTTTCT[MGB]</v>
       </c>
       <c r="C52">
@@ -2298,11 +2298,11 @@
         <v>67</v>
       </c>
       <c r="E52">
-        <f>LEN(A52)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TCAGTGCTGGTGTGATAA[MGB]</v>
       </c>
       <c r="C53">
@@ -2321,11 +2321,11 @@
         <v>69</v>
       </c>
       <c r="E53">
-        <f>LEN(A53)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CACACTGATTAATAAGGA[MGB]</v>
       </c>
       <c r="C54">
@@ -2344,11 +2344,11 @@
         <v>65</v>
       </c>
       <c r="E54">
-        <f>LEN(A54)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CGTAGATCCTTTTTTTCA[MGB]</v>
       </c>
       <c r="C55">
@@ -2367,11 +2367,11 @@
         <v>68</v>
       </c>
       <c r="E55">
-        <f>LEN(A55)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CTGATAGATGGTGACTAGC[MGB]</v>
       </c>
       <c r="C56">
@@ -2390,11 +2390,11 @@
         <v>69</v>
       </c>
       <c r="E56">
-        <f>LEN(A56)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47368421052631576</v>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TCCAACATGTCTCTTACCGT[MGB]</v>
       </c>
       <c r="C57">
@@ -2413,11 +2413,11 @@
         <v>68</v>
       </c>
       <c r="E57">
-        <f>LEN(A57)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TTGCTTATGTGGACGTTGTAT[MGB]</v>
       </c>
       <c r="C58">
@@ -2436,11 +2436,11 @@
         <v>70</v>
       </c>
       <c r="E58">
-        <f>LEN(A58)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38095238095238093</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GACCTAGCCTGTCAGAATCAG[MGB]</v>
       </c>
       <c r="C59">
@@ -2459,11 +2459,11 @@
         <v>77</v>
       </c>
       <c r="E59">
-        <f>LEN(A59)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GCCGGTCACGTTTAAGTCTCC[MGB]</v>
       </c>
       <c r="C60">
@@ -2482,11 +2482,11 @@
         <v>78</v>
       </c>
       <c r="E60">
-        <f>LEN(A60)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CAGTGGAGGTCTTGGTTGCCTC[MGB]</v>
       </c>
       <c r="C61">
@@ -2505,11 +2505,11 @@
         <v>76</v>
       </c>
       <c r="E61">
-        <f>LEN(A61)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59090909090909094</v>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GCTCTGGTTTCGCCTCAAAAAT[MGB]</v>
       </c>
       <c r="C62">
@@ -2528,11 +2528,11 @@
         <v>81</v>
       </c>
       <c r="E62">
-        <f>LEN(A62)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CATATCCGGAATTGGTATATCC[MGB]</v>
       </c>
       <c r="C63">
@@ -2551,11 +2551,11 @@
         <v>72</v>
       </c>
       <c r="E63">
-        <f>LEN(A63)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CTCTTCAATGTTTAAATGACCCT[MGB]</v>
       </c>
       <c r="C64">
@@ -2574,11 +2574,11 @@
         <v>68</v>
       </c>
       <c r="E64">
-        <f>LEN(A64)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34782608695652173</v>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GAAGTTGAATCGGTGATACGGAT[MGB]</v>
       </c>
       <c r="C65">
@@ -2597,11 +2597,11 @@
         <v>73</v>
       </c>
       <c r="E65">
-        <f>LEN(A65)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43478260869565216</v>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
         <v>68</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CGATAGTTTGATCGTGCTAGTTG[MGB]</v>
       </c>
       <c r="C66">
@@ -2620,11 +2620,11 @@
         <v>73</v>
       </c>
       <c r="E66">
-        <f>LEN(A66)</f>
+        <f t="shared" ref="E66:E129" si="3">LEN(A66)</f>
         <v>23</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43478260869565216</v>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B130" si="2">_xlfn.CONCAT(A67,"[MGB]")</f>
+        <f t="shared" ref="B67:B130" si="4">_xlfn.CONCAT(A67,"[MGB]")</f>
         <v>GACAAGTCATTTCTGATACATCCC[MGB]</v>
       </c>
       <c r="C67">
@@ -2643,11 +2643,11 @@
         <v>75</v>
       </c>
       <c r="E67">
-        <f>LEN(A67)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F130" si="3">(2 * LEN(A67) - LEN(SUBSTITUTE(A67, "G","")) - LEN(SUBSTITUTE(A67, "C",""))) / LEN(A67)</f>
+        <f t="shared" ref="F67:F130" si="5">(2 * LEN(A67) - LEN(SUBSTITUTE(A67, "G","")) - LEN(SUBSTITUTE(A67, "C",""))) / LEN(A67)</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
         <v>70</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AATACCTCGTCCGTGTTACCAGACC[MGB]</v>
       </c>
       <c r="C68">
@@ -2666,11 +2666,11 @@
         <v>76</v>
       </c>
       <c r="E68">
-        <f>LEN(A68)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.52</v>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TAGCAGAGCCAGTCTTAAAGCCTAG[MGB]</v>
       </c>
       <c r="C69">
@@ -2689,11 +2689,11 @@
         <v>76</v>
       </c>
       <c r="E69">
-        <f>LEN(A69)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.48</v>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GAACTTAATACCGTAGCTCAGAATT[MGB]</v>
       </c>
       <c r="C70">
@@ -2712,11 +2712,11 @@
         <v>74</v>
       </c>
       <c r="E70">
-        <f>LEN(A70)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GGTTGGGGTTATGCGGTACCAGTGC[MGB]</v>
       </c>
       <c r="C71">
@@ -2735,11 +2735,11 @@
         <v>79</v>
       </c>
       <c r="E71">
-        <f>LEN(A71)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GCTTATTTTAGAACGCATGTAAAGC[MGB]</v>
       </c>
       <c r="C72">
@@ -2758,11 +2758,11 @@
         <v>73</v>
       </c>
       <c r="E72">
-        <f>LEN(A72)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
         <v>75</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CGATGACAGTAACCTCGGACCATCCT[MGB]</v>
       </c>
       <c r="C73">
@@ -2781,11 +2781,11 @@
         <v>78</v>
       </c>
       <c r="E73">
-        <f>LEN(A73)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
         <v>76</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GTGGTGCACCACACTTGTAGCTGTGA[MGB]</v>
       </c>
       <c r="C74">
@@ -2804,11 +2804,11 @@
         <v>79</v>
       </c>
       <c r="E74">
-        <f>LEN(A74)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
         <v>77</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CGTTAACCGATACATACTGGTTTCTCT[MGB]</v>
       </c>
       <c r="C75">
@@ -2827,11 +2827,11 @@
         <v>76</v>
       </c>
       <c r="E75">
-        <f>LEN(A75)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.40740740740740738</v>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CCGCAACAGCGACGACTAATTGATCAG[MGB]</v>
       </c>
       <c r="C76">
@@ -2850,11 +2850,11 @@
         <v>79</v>
       </c>
       <c r="E76">
-        <f>LEN(A76)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.51851851851851849</v>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
         <v>79</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GGACCTCAGGAGCTAGACGGGGACCTAC[MGB]</v>
       </c>
       <c r="C77">
@@ -2873,11 +2873,11 @@
         <v>82</v>
       </c>
       <c r="E77">
-        <f>LEN(A77)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GTGTGCCTTCGTAGGCTGTTTCTCAGGAC[MGB]</v>
       </c>
       <c r="C78">
@@ -2896,11 +2896,11 @@
         <v>80</v>
       </c>
       <c r="E78">
-        <f>LEN(A78)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.55172413793103448</v>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CCCAACTATTCTTTCCAATCCTACATCTG[MGB]</v>
       </c>
       <c r="C79">
@@ -2919,11 +2919,11 @@
         <v>76</v>
       </c>
       <c r="E79">
-        <f>LEN(A79)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.41379310344827586</v>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CTTGGATATCGGAAGGGTTCTGTAGTGAATG[MGB]</v>
       </c>
       <c r="C80">
@@ -2942,11 +2942,11 @@
         <v>79</v>
       </c>
       <c r="E80">
-        <f>LEN(A80)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.45161290322580644</v>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TCGGCTGCTGGTCGTGTGACCATCTGATTCG[MGB]</v>
       </c>
       <c r="C81">
@@ -2965,11 +2965,11 @@
         <v>85</v>
       </c>
       <c r="E81">
-        <f>LEN(A81)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.58064516129032262</v>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CTGAAATAACTTATCCGCGAGGAGCATGCTA[MGB]</v>
       </c>
       <c r="C82">
@@ -2988,11 +2988,11 @@
         <v>79</v>
       </c>
       <c r="E82">
-        <f>LEN(A82)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.45161290322580644</v>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TATCTCAAGCCTGGGCAATTCAGATAGTCAA[MGB]</v>
       </c>
       <c r="C83">
@@ -3011,11 +3011,11 @@
         <v>78</v>
       </c>
       <c r="E83">
-        <f>LEN(A83)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.41935483870967744</v>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CAAACCACCCTACTGGCACGAAGTTCACAGAA[MGB]</v>
       </c>
       <c r="C84">
@@ -3034,11 +3034,11 @@
         <v>82</v>
       </c>
       <c r="E84">
-        <f>LEN(A84)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TGAGATTATGTCTCGTTTGGCAGTCTTGATGC[MGB]</v>
       </c>
       <c r="C85">
@@ -3057,11 +3057,11 @@
         <v>79</v>
       </c>
       <c r="E85">
-        <f>LEN(A85)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4375</v>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GCTTCCATAGCACAGGTTGACGGAGGAGTTTT[MGB]</v>
       </c>
       <c r="C86">
@@ -3080,11 +3080,11 @@
         <v>84</v>
       </c>
       <c r="E86">
-        <f>LEN(A86)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
         <v>89</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TTTTACGACTCCAAGTTTCCTGCGCAATACCAA[MGB]</v>
       </c>
       <c r="C87">
@@ -3103,11 +3103,11 @@
         <v>80</v>
       </c>
       <c r="E87">
-        <f>LEN(A87)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.42424242424242425</v>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
         <v>90</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GTGCGGCGACCCTTGCGACAGTGACGCTTTCGCC[MGB]</v>
       </c>
       <c r="C88">
@@ -3126,11 +3126,11 @@
         <v>91</v>
       </c>
       <c r="E88">
-        <f>LEN(A88)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.67647058823529416</v>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CGATATATAGTTTGATAGCTGATACTTATGGCGC[MGB]</v>
       </c>
       <c r="C89">
@@ -3149,11 +3149,11 @@
         <v>75</v>
       </c>
       <c r="E89">
-        <f>LEN(A89)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38235294117647056</v>
       </c>
     </row>
@@ -3162,7 +3162,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>ACCTCCGGGTCACTGTGTAGGCTCTACGATGTGT[MGB]</v>
       </c>
       <c r="C90">
@@ -3172,11 +3172,11 @@
         <v>84</v>
       </c>
       <c r="E90">
-        <f>LEN(A90)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.55882352941176472</v>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AAAGGGCTCCAACTGCCTTCAACATGTGCCGACG[MGB]</v>
       </c>
       <c r="C91">
@@ -3195,11 +3195,11 @@
         <v>84</v>
       </c>
       <c r="E91">
-        <f>LEN(A91)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.55882352941176472</v>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GAATGCGCCGCAAGTAGCAGGTCCCGGCGTGGATA[MGB]</v>
       </c>
       <c r="C92">
@@ -3218,11 +3218,11 @@
         <v>89</v>
       </c>
       <c r="E92">
-        <f>LEN(A92)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.62857142857142856</v>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
         <v>95</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CCTTACTTTACCGAACGGCTAGTGTTAGGTCGACG[MGB]</v>
       </c>
       <c r="C93">
@@ -3241,11 +3241,11 @@
         <v>80</v>
       </c>
       <c r="E93">
-        <f>LEN(A93)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.51428571428571423</v>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
         <v>96</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TCATACAAACCCTGAGAAACTCAGAATACTTTATT[MGB]</v>
       </c>
       <c r="C94">
@@ -3264,11 +3264,11 @@
         <v>77</v>
       </c>
       <c r="E94">
-        <f>LEN(A94)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31428571428571428</v>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AGTTTCTACGATATACTCATGGTAGTGTAACGCATA[MGB]</v>
       </c>
       <c r="C95">
@@ -3287,11 +3287,11 @@
         <v>76</v>
       </c>
       <c r="E95">
-        <f>LEN(A95)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3611111111111111</v>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AGCCCCGCTTCGTTTAATGGTTGAATGATCTCTGGG[MGB]</v>
       </c>
       <c r="C96">
@@ -3310,11 +3310,11 @@
         <v>83</v>
       </c>
       <c r="E96">
-        <f>LEN(A96)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GATACCTGCAGTCTGGGAGGCAATGCTGAGGCCCTCT[MGB]</v>
       </c>
       <c r="C97">
@@ -3333,11 +3333,11 @@
         <v>87</v>
       </c>
       <c r="E97">
-        <f>LEN(A97)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.59459459459459463</v>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
         <v>100</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TAAACAGCTCAGGAGCCAGTCCCCTACGTCGCATATCC[MGB]</v>
       </c>
       <c r="C98">
@@ -3356,11 +3356,11 @@
         <v>87</v>
       </c>
       <c r="E98">
-        <f>LEN(A98)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.55263157894736847</v>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TTCTTGCGTCGTAGCGGGACCCTCCATTGTTACTTATT[MGB]</v>
       </c>
       <c r="C99">
@@ -3379,11 +3379,11 @@
         <v>85</v>
       </c>
       <c r="E99">
-        <f>LEN(A99)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.47368421052631576</v>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GTCCGTCGTTGTTCCCGATGAAGACGTCTACTGATATG[MGB]</v>
       </c>
       <c r="C100">
@@ -3402,11 +3402,11 @@
         <v>83</v>
       </c>
       <c r="E100">
-        <f>LEN(A100)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
         <v>103</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AGGAGGCCGCACCCTAGGTCAAGTTTTACGATTGCCCT[MGB]</v>
       </c>
       <c r="C101">
@@ -3425,11 +3425,11 @@
         <v>86</v>
       </c>
       <c r="E101">
-        <f>LEN(A101)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.55263157894736847</v>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
         <v>104</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AGCCAGGAAATTTCTTTGTATCCTAAGAGGAAGCTCAA[MGB]</v>
       </c>
       <c r="C102">
@@ -3448,11 +3448,11 @@
         <v>80</v>
       </c>
       <c r="E102">
-        <f>LEN(A102)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.39473684210526316</v>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
         <v>105</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AACGCGACGGCTGAGACGAACGGCGCGTGAATGAAGCGC[MGB]</v>
       </c>
       <c r="C103">
@@ -3471,11 +3471,11 @@
         <v>92</v>
       </c>
       <c r="E103">
-        <f>LEN(A103)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.64102564102564108</v>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GGCCACTGGAGGTGAAGCGAATGGTATCGATACGTAGGA[MGB]</v>
       </c>
       <c r="C104">
@@ -3494,11 +3494,11 @@
         <v>84</v>
       </c>
       <c r="E104">
-        <f>LEN(A104)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
         <v>107</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GTCTATTGAGCTTCGAGGATGCATACAAGCCCACCCGCA[MGB]</v>
       </c>
       <c r="C105">
@@ -3517,11 +3517,11 @@
         <v>84</v>
       </c>
       <c r="E105">
-        <f>LEN(A105)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
         <v>108</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AATTTATTAAGCACGGTGTTAACTTCTGTTTAGTGGGCT[MGB]</v>
       </c>
       <c r="C106">
@@ -3540,11 +3540,11 @@
         <v>78</v>
       </c>
       <c r="E106">
-        <f>LEN(A106)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35897435897435898</v>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GTCCCATACGAGATGACCTTACGAACTGTAACTAATCCG[MGB]</v>
       </c>
       <c r="C107">
@@ -3563,11 +3563,11 @@
         <v>82</v>
       </c>
       <c r="E107">
-        <f>LEN(A107)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.46153846153846156</v>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TTGGGATTGAAAGAAGG[MGB]</v>
       </c>
       <c r="C108">
@@ -3586,11 +3586,11 @@
         <v>69</v>
       </c>
       <c r="E108">
-        <f>LEN(A108)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.41176470588235292</v>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GACGCTAGCAGTATCATGCTATCTATGG[MGB]</v>
       </c>
       <c r="C109">
@@ -3609,11 +3609,11 @@
         <v>78</v>
       </c>
       <c r="E109">
-        <f>LEN(A109)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4642857142857143</v>
       </c>
     </row>
@@ -3622,7 +3622,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>ACAAATGGACATTATT[MGB]</v>
       </c>
       <c r="C110">
@@ -3632,11 +3632,11 @@
         <v>65</v>
       </c>
       <c r="E110">
-        <f>LEN(A110)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TTGGAAGGTCGTTAGTGTCCGAG[MGB]</v>
       </c>
       <c r="C111">
@@ -3655,11 +3655,11 @@
         <v>73</v>
       </c>
       <c r="E111">
-        <f>LEN(A111)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="F111" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.52173913043478259</v>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GTCTCATAGATCCAGTTT[MGB]</v>
       </c>
       <c r="C112">
@@ -3678,11 +3678,11 @@
         <v>64</v>
       </c>
       <c r="E112">
-        <f>LEN(A112)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="F112" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3888888888888889</v>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>ACGCCTTGGAT[MGB]</v>
       </c>
       <c r="C113">
@@ -3701,11 +3701,11 @@
         <v>57</v>
       </c>
       <c r="E113">
-        <f>LEN(A113)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="F113" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.54545454545454541</v>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GAGAGACAACTGCGTAGCTCTCAGT[MGB]</v>
       </c>
       <c r="C114">
@@ -3724,11 +3724,11 @@
         <v>77</v>
       </c>
       <c r="E114">
-        <f>LEN(A114)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F114" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.52</v>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GTTGTCCAACCTTTATTGAGCTTTTTACGG[MGB]</v>
       </c>
       <c r="C115">
@@ -3747,11 +3747,11 @@
         <v>76</v>
       </c>
       <c r="E115">
-        <f>LEN(A115)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
@@ -3760,7 +3760,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TGGGCCAGGGCCTTGGATATCGTTGGCTACTCC[MGB]</v>
       </c>
       <c r="C116">
@@ -3770,11 +3770,11 @@
         <v>87</v>
       </c>
       <c r="E116">
-        <f>LEN(A116)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="F116" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.60606060606060608</v>
       </c>
     </row>
@@ -3783,7 +3783,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AGTGAGAGCATAATTTT[MGB]</v>
       </c>
       <c r="C117">
@@ -3793,11 +3793,11 @@
         <v>70</v>
       </c>
       <c r="E117">
-        <f>LEN(A117)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="F117" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.29411764705882354</v>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
         <v>120</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AGTCACGTTCGATTCCCCAATTACCTTAGA[MGB]</v>
       </c>
       <c r="C118">
@@ -3816,11 +3816,11 @@
         <v>78</v>
       </c>
       <c r="E118">
-        <f>LEN(A118)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.43333333333333335</v>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GGACGATCACCGGCAAAATGTCACACGATGCAGCGTGCT[MGB]</v>
       </c>
       <c r="C119">
@@ -3839,11 +3839,11 @@
         <v>87</v>
       </c>
       <c r="E119">
-        <f>LEN(A119)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5641025641025641</v>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>GTCGTACCACTGTAAGACGCT[MGB]</v>
       </c>
       <c r="C120">
@@ -3862,11 +3862,11 @@
         <v>74</v>
       </c>
       <c r="E120">
-        <f>LEN(A120)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="F120" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
         <v>123</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CCAGAGATCCCGACTGTGCT[MGB]</v>
       </c>
       <c r="C121">
@@ -3885,11 +3885,11 @@
         <v>74</v>
       </c>
       <c r="E121">
-        <f>LEN(A121)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="F121" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
@@ -3898,7 +3898,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AAGGCCCCCTGAGGCTCGAAAGACTCTTATGTTAGT[MGB]</v>
       </c>
       <c r="C122">
@@ -3908,11 +3908,11 @@
         <v>83</v>
       </c>
       <c r="E122">
-        <f>LEN(A122)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="F122" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
         <v>125</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>ATCGATCGTTGA[MGB]</v>
       </c>
       <c r="C123">
@@ -3931,11 +3931,11 @@
         <v>54</v>
       </c>
       <c r="E123">
-        <f>LEN(A123)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F123" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
         <v>126</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>TAACGCTTGCACTAACTTTCGTGT[MGB]</v>
       </c>
       <c r="C124">
@@ -3954,11 +3954,11 @@
         <v>72</v>
       </c>
       <c r="E124">
-        <f>LEN(A124)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="F124" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
         <v>127</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CACCGTACCGGGATCTGCGATGGTTTTTGAA[MGB]</v>
       </c>
       <c r="C125">
@@ -3977,11 +3977,11 @@
         <v>83</v>
       </c>
       <c r="E125">
-        <f>LEN(A125)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="F125" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5161290322580645</v>
       </c>
     </row>
@@ -3990,7 +3990,7 @@
         <v>128</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CTACTACTGGTAGCTACGTTCCGGGCAGG[MGB]</v>
       </c>
       <c r="C126">
@@ -4000,11 +4000,11 @@
         <v>79</v>
       </c>
       <c r="E126">
-        <f>LEN(A126)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="F126" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.58620689655172409</v>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
         <v>129</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>ATCTGTTGGAA[MGB]</v>
       </c>
       <c r="C127">
@@ -4023,11 +4023,11 @@
         <v>50</v>
       </c>
       <c r="E127">
-        <f>LEN(A127)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="F127" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.36363636363636365</v>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>ATAGTACCTCCCCCTGCTCGACACAC[MGB]</v>
       </c>
       <c r="C128">
@@ -4046,11 +4046,11 @@
         <v>78</v>
       </c>
       <c r="E128">
-        <f>LEN(A128)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="F128" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57692307692307687</v>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AATGAATCAGCTATTATTAGG[MGB]</v>
       </c>
       <c r="C129">
@@ -4069,11 +4069,11 @@
         <v>66</v>
       </c>
       <c r="E129">
-        <f>LEN(A129)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="F129" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
         <v>132</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>AGTATTTACCCATGCCTCGT[MGB]</v>
       </c>
       <c r="C130">
@@ -4092,11 +4092,11 @@
         <v>68</v>
       </c>
       <c r="E130">
-        <f>LEN(A130)</f>
+        <f t="shared" ref="E130:E193" si="6">LEN(A130)</f>
         <v>20</v>
       </c>
       <c r="F130" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
         <v>133</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B194" si="4">_xlfn.CONCAT(A131,"[MGB]")</f>
+        <f t="shared" ref="B131:B194" si="7">_xlfn.CONCAT(A131,"[MGB]")</f>
         <v>CCGCATCAACCCGGTACT[MGB]</v>
       </c>
       <c r="C131">
@@ -4115,11 +4115,11 @@
         <v>74</v>
       </c>
       <c r="E131">
-        <f>LEN(A131)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="F131" s="2">
-        <f t="shared" ref="F131:F194" si="5">(2 * LEN(A131) - LEN(SUBSTITUTE(A131, "G","")) - LEN(SUBSTITUTE(A131, "C",""))) / LEN(A131)</f>
+        <f t="shared" ref="F131:F194" si="8">(2 * LEN(A131) - LEN(SUBSTITUTE(A131, "G","")) - LEN(SUBSTITUTE(A131, "C",""))) / LEN(A131)</f>
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
         <v>134</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>TGTTCAGCACGGAT[MGB]</v>
       </c>
       <c r="C132">
@@ -4138,11 +4138,11 @@
         <v>63</v>
       </c>
       <c r="E132">
-        <f>LEN(A132)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F132" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
         <v>135</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>ATGTAATAGCTCTAAGATGGAAGCTGCAATACG[MGB]</v>
       </c>
       <c r="C133">
@@ -4161,11 +4161,11 @@
         <v>78</v>
       </c>
       <c r="E133">
-        <f>LEN(A133)</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="F133" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.39393939393939392</v>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>GGCTATTCCAATCGCTGCTCCCGACCGGTCCCCCAG[MGB]</v>
       </c>
       <c r="C134">
@@ -4184,11 +4184,11 @@
         <v>87</v>
       </c>
       <c r="E134">
-        <f>LEN(A134)</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="F134" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
         <v>137</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CGGTTTAAAGCACGGGAT[MGB]</v>
       </c>
       <c r="C135">
@@ -4207,11 +4207,11 @@
         <v>69</v>
       </c>
       <c r="E135">
-        <f>LEN(A135)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="F135" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
         <v>138</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CGAGCGTCCCACTTACACAATATACATGCC[MGB]</v>
       </c>
       <c r="C136">
@@ -4230,11 +4230,11 @@
         <v>80</v>
       </c>
       <c r="E136">
-        <f>LEN(A136)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="F136" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
         <v>139</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CGGGTTGGCCTACGTCATTGAGCTTCAGAT[MGB]</v>
       </c>
       <c r="C137">
@@ -4253,11 +4253,11 @@
         <v>82</v>
       </c>
       <c r="E137">
-        <f>LEN(A137)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="F137" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
         <v>140</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>GGCTGAAGAGAACGGTAGGTG[MGB]</v>
       </c>
       <c r="C138">
@@ -4276,11 +4276,11 @@
         <v>74</v>
       </c>
       <c r="E138">
-        <f>LEN(A138)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="F138" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
         <v>141</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>TCGGCGATCAGGTG[MGB]</v>
       </c>
       <c r="C139">
@@ -4299,11 +4299,11 @@
         <v>67</v>
       </c>
       <c r="E139">
-        <f>LEN(A139)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F139" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
         <v>142</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>ATTATTGGCTAAATGCTCTCAACGGAGTCCATCGCT[MGB]</v>
       </c>
       <c r="C140">
@@ -4322,11 +4322,11 @@
         <v>82</v>
       </c>
       <c r="E140">
-        <f>LEN(A140)</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="F140" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
         <v>143</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>ACTTTGGTCAGATATATCACCAGATTCACCGCC[MGB]</v>
       </c>
       <c r="C141">
@@ -4345,11 +4345,11 @@
         <v>78</v>
       </c>
       <c r="E141">
-        <f>LEN(A141)</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="F141" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
         <v>144</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>ATGCCATGGGCTTG[MGB]</v>
       </c>
       <c r="C142">
@@ -4368,11 +4368,11 @@
         <v>68</v>
       </c>
       <c r="E142">
-        <f>LEN(A142)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F142" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CAGCGCTGCCTGCGAATGCC[MGB]</v>
       </c>
       <c r="C143">
@@ -4391,11 +4391,11 @@
         <v>85</v>
       </c>
       <c r="E143">
-        <f>LEN(A143)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F143" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
     </row>
@@ -4404,7 +4404,7 @@
         <v>146</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAA[MGB]</v>
       </c>
       <c r="C144">
@@ -4414,11 +4414,11 @@
         <v>50</v>
       </c>
       <c r="E144">
-        <f>LEN(A144)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F144" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C145">
@@ -4437,11 +4437,11 @@
         <v>52</v>
       </c>
       <c r="E145">
-        <f>LEN(A145)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="F145" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
         <v>148</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C146">
@@ -4460,11 +4460,11 @@
         <v>55</v>
       </c>
       <c r="E146">
-        <f>LEN(A146)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="F146" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
         <v>149</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C147">
@@ -4483,11 +4483,11 @@
         <v>57</v>
       </c>
       <c r="E147">
-        <f>LEN(A147)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F147" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4496,21 +4496,21 @@
         <v>150</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C148">
         <v>30.7</v>
       </c>
       <c r="D148">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E148">
-        <f>LEN(A148)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
         <v>151</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C149">
@@ -4529,11 +4529,11 @@
         <v>60</v>
       </c>
       <c r="E149">
-        <f>LEN(A149)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F149" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4542,7 +4542,7 @@
         <v>152</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C150">
@@ -4552,11 +4552,11 @@
         <v>61</v>
       </c>
       <c r="E150">
-        <f>LEN(A150)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="F150" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
         <v>153</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C151">
@@ -4575,11 +4575,11 @@
         <v>62</v>
       </c>
       <c r="E151">
-        <f>LEN(A151)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="F151" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4588,7 +4588,7 @@
         <v>154</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C152">
@@ -4598,11 +4598,11 @@
         <v>63</v>
       </c>
       <c r="E152">
-        <f>LEN(A152)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="F152" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
         <v>155</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C153">
@@ -4621,11 +4621,11 @@
         <v>64</v>
       </c>
       <c r="E153">
-        <f>LEN(A153)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="F153" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
         <v>156</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C154">
@@ -4644,11 +4644,11 @@
         <v>65</v>
       </c>
       <c r="E154">
-        <f>LEN(A154)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F154" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
         <v>157</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C155">
@@ -4667,11 +4667,11 @@
         <v>65</v>
       </c>
       <c r="E155">
-        <f>LEN(A155)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="F155" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4680,7 +4680,7 @@
         <v>158</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C156">
@@ -4690,11 +4690,11 @@
         <v>66</v>
       </c>
       <c r="E156">
-        <f>LEN(A156)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="F156" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
         <v>159</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C157">
@@ -4713,11 +4713,11 @@
         <v>67</v>
       </c>
       <c r="E157">
-        <f>LEN(A157)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="F157" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
         <v>160</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C158">
@@ -4736,11 +4736,11 @@
         <v>67</v>
       </c>
       <c r="E158">
-        <f>LEN(A158)</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F158" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
         <v>161</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C159">
@@ -4759,11 +4759,11 @@
         <v>68</v>
       </c>
       <c r="E159">
-        <f>LEN(A159)</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="F159" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4772,7 +4772,7 @@
         <v>162</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C160">
@@ -4782,11 +4782,11 @@
         <v>68</v>
       </c>
       <c r="E160">
-        <f>LEN(A160)</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F160" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
         <v>163</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C161">
@@ -4805,11 +4805,11 @@
         <v>69</v>
       </c>
       <c r="E161">
-        <f>LEN(A161)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="F161" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
         <v>164</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C162">
@@ -4828,11 +4828,11 @@
         <v>69</v>
       </c>
       <c r="E162">
-        <f>LEN(A162)</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="F162" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
         <v>165</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C163">
@@ -4851,11 +4851,11 @@
         <v>69</v>
       </c>
       <c r="E163">
-        <f>LEN(A163)</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="F163" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4864,7 +4864,7 @@
         <v>166</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C164">
@@ -4874,11 +4874,11 @@
         <v>70</v>
       </c>
       <c r="E164">
-        <f>LEN(A164)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="F164" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
         <v>167</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C165">
@@ -4897,11 +4897,11 @@
         <v>70</v>
       </c>
       <c r="E165">
-        <f>LEN(A165)</f>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="F165" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
         <v>168</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C166">
@@ -4920,11 +4920,11 @@
         <v>70</v>
       </c>
       <c r="E166">
-        <f>LEN(A166)</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="F166" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
         <v>169</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C167">
@@ -4943,11 +4943,11 @@
         <v>71</v>
       </c>
       <c r="E167">
-        <f>LEN(A167)</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="F167" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
         <v>170</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C168">
@@ -4966,11 +4966,11 @@
         <v>71</v>
       </c>
       <c r="E168">
-        <f>LEN(A168)</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="F168" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4979,7 +4979,7 @@
         <v>171</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C169">
@@ -4989,11 +4989,11 @@
         <v>71</v>
       </c>
       <c r="E169">
-        <f>LEN(A169)</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="F169" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
         <v>172</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C170">
@@ -5012,11 +5012,11 @@
         <v>71</v>
       </c>
       <c r="E170">
-        <f>LEN(A170)</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="F170" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
         <v>173</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C171">
@@ -5035,11 +5035,11 @@
         <v>72</v>
       </c>
       <c r="E171">
-        <f>LEN(A171)</f>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="F171" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
         <v>174</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C172">
@@ -5058,11 +5058,11 @@
         <v>72</v>
       </c>
       <c r="E172">
-        <f>LEN(A172)</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="F172" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
         <v>175</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C173">
@@ -5081,11 +5081,11 @@
         <v>72</v>
       </c>
       <c r="E173">
-        <f>LEN(A173)</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="F173" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
         <v>176</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA[MGB]</v>
       </c>
       <c r="C174">
@@ -5104,11 +5104,11 @@
         <v>72</v>
       </c>
       <c r="E174">
-        <f>LEN(A174)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="F174" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
         <v>177</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCC[MGB]</v>
       </c>
       <c r="C175">
@@ -5127,11 +5127,11 @@
         <v>63</v>
       </c>
       <c r="E175">
-        <f>LEN(A175)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F175" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
         <v>CCCCCCCCCCC</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C176">
@@ -5151,21 +5151,21 @@
         <v>67</v>
       </c>
       <c r="E176">
-        <f>LEN(A176)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="F176" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
-        <f t="shared" ref="A177:A205" si="6">_xlfn.CONCAT(A176,"C")</f>
+        <f t="shared" ref="A177:A205" si="9">_xlfn.CONCAT(A176,"C")</f>
         <v>CCCCCCCCCCCC</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C177">
@@ -5175,21 +5175,21 @@
         <v>71</v>
       </c>
       <c r="E177">
-        <f>LEN(A177)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="F177" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCC</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C178">
@@ -5199,21 +5199,21 @@
         <v>74</v>
       </c>
       <c r="E178">
-        <f>LEN(A178)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F178" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCC</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C179">
@@ -5223,21 +5223,21 @@
         <v>77</v>
       </c>
       <c r="E179">
-        <f>LEN(A179)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F179" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCC</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C180">
@@ -5247,21 +5247,21 @@
         <v>79</v>
       </c>
       <c r="E180">
-        <f>LEN(A180)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F180" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C181">
@@ -5271,21 +5271,21 @@
         <v>81</v>
       </c>
       <c r="E181">
-        <f>LEN(A181)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="F181" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C182">
@@ -5295,21 +5295,21 @@
         <v>83</v>
       </c>
       <c r="E182">
-        <f>LEN(A182)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="F182" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C183">
@@ -5319,21 +5319,21 @@
         <v>85</v>
       </c>
       <c r="E183">
-        <f>LEN(A183)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="F183" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C184">
@@ -5343,21 +5343,21 @@
         <v>87</v>
       </c>
       <c r="E184">
-        <f>LEN(A184)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="F184" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C185">
@@ -5367,21 +5367,21 @@
         <v>88</v>
       </c>
       <c r="E185">
-        <f>LEN(A185)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F185" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C186">
@@ -5391,21 +5391,21 @@
         <v>89</v>
       </c>
       <c r="E186">
-        <f>LEN(A186)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="F186" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C187">
@@ -5415,21 +5415,21 @@
         <v>91</v>
       </c>
       <c r="E187">
-        <f>LEN(A187)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="F187" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C188">
@@ -5439,21 +5439,21 @@
         <v>92</v>
       </c>
       <c r="E188">
-        <f>LEN(A188)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="F188" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C189">
@@ -5463,21 +5463,21 @@
         <v>93</v>
       </c>
       <c r="E189">
-        <f>LEN(A189)</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F189" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C190">
@@ -5487,21 +5487,21 @@
         <v>94</v>
       </c>
       <c r="E190">
-        <f>LEN(A190)</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="F190" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C191">
@@ -5511,21 +5511,21 @@
         <v>95</v>
       </c>
       <c r="E191">
-        <f>LEN(A191)</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F191" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C192">
@@ -5535,21 +5535,21 @@
         <v>95</v>
       </c>
       <c r="E192">
-        <f>LEN(A192)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="F192" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B193" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C193">
@@ -5559,21 +5559,21 @@
         <v>96</v>
       </c>
       <c r="E193">
-        <f>LEN(A193)</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="F193" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C194">
@@ -5583,21 +5583,21 @@
         <v>97</v>
       </c>
       <c r="E194">
-        <f>LEN(A194)</f>
+        <f t="shared" ref="E194:E257" si="10">LEN(A194)</f>
         <v>29</v>
       </c>
       <c r="F194" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" ref="B195:B258" si="7">_xlfn.CONCAT(A195,"[MGB]")</f>
+        <f t="shared" ref="B195:B258" si="11">_xlfn.CONCAT(A195,"[MGB]")</f>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C195">
@@ -5607,21 +5607,21 @@
         <v>98</v>
       </c>
       <c r="E195">
-        <f>LEN(A195)</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="F195" s="2">
-        <f t="shared" ref="F195:F258" si="8">(2 * LEN(A195) - LEN(SUBSTITUTE(A195, "G","")) - LEN(SUBSTITUTE(A195, "C",""))) / LEN(A195)</f>
+        <f t="shared" ref="F195:F258" si="12">(2 * LEN(A195) - LEN(SUBSTITUTE(A195, "G","")) - LEN(SUBSTITUTE(A195, "C",""))) / LEN(A195)</f>
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C196">
@@ -5631,21 +5631,21 @@
         <v>98</v>
       </c>
       <c r="E196">
-        <f>LEN(A196)</f>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="F196" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C197">
@@ -5655,21 +5655,21 @@
         <v>99</v>
       </c>
       <c r="E197">
-        <f>LEN(A197)</f>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="F197" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B198" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C198">
@@ -5679,21 +5679,21 @@
         <v>99</v>
       </c>
       <c r="E198">
-        <f>LEN(A198)</f>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="F198" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B199" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C199">
@@ -5703,21 +5703,21 @@
         <v>100</v>
       </c>
       <c r="E199">
-        <f>LEN(A199)</f>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="F199" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B200" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C200">
@@ -5727,21 +5727,21 @@
         <v>100</v>
       </c>
       <c r="E200">
-        <f>LEN(A200)</f>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="F200" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C201">
@@ -5751,21 +5751,21 @@
         <v>101</v>
       </c>
       <c r="E201">
-        <f>LEN(A201)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="F201" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B202" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C202">
@@ -5775,21 +5775,21 @@
         <v>101</v>
       </c>
       <c r="E202">
-        <f>LEN(A202)</f>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="F202" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B203" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C203">
@@ -5799,21 +5799,21 @@
         <v>102</v>
       </c>
       <c r="E203">
-        <f>LEN(A203)</f>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="F203" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B204" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C204">
@@ -5823,21 +5823,21 @@
         <v>102</v>
       </c>
       <c r="E204">
-        <f>LEN(A204)</f>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="F204" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</v>
       </c>
       <c r="B205" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC[MGB]</v>
       </c>
       <c r="C205">
@@ -5847,11 +5847,11 @@
         <v>103</v>
       </c>
       <c r="E205">
-        <f>LEN(A205)</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="F205" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
         <v>178</v>
       </c>
       <c r="B206" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGG[MGB]</v>
       </c>
       <c r="C206">
@@ -5870,11 +5870,11 @@
         <v>61</v>
       </c>
       <c r="E206">
-        <f>LEN(A206)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="F206" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5884,7 +5884,7 @@
         <v>GGGGGGGGGGG</v>
       </c>
       <c r="B207" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C207">
@@ -5894,21 +5894,21 @@
         <v>66</v>
       </c>
       <c r="E207">
-        <f>LEN(A207)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="F207" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
-        <f t="shared" ref="A208:A236" si="9">_xlfn.CONCAT(A207,"G")</f>
+        <f t="shared" ref="A208:A236" si="13">_xlfn.CONCAT(A207,"G")</f>
         <v>GGGGGGGGGGGG</v>
       </c>
       <c r="B208" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C208">
@@ -5918,21 +5918,21 @@
         <v>69</v>
       </c>
       <c r="E208">
-        <f>LEN(A208)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="F208" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGG</v>
       </c>
       <c r="B209" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C209">
@@ -5942,21 +5942,21 @@
         <v>73</v>
       </c>
       <c r="E209">
-        <f>LEN(A209)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F209" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGG</v>
       </c>
       <c r="B210" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C210">
@@ -5966,21 +5966,21 @@
         <v>75</v>
       </c>
       <c r="E210">
-        <f>LEN(A210)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F210" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGG</v>
       </c>
       <c r="B211" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C211">
@@ -5990,21 +5990,21 @@
         <v>78</v>
       </c>
       <c r="E211">
-        <f>LEN(A211)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F211" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C212">
@@ -6014,21 +6014,21 @@
         <v>80</v>
       </c>
       <c r="E212">
-        <f>LEN(A212)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="F212" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B213" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C213">
@@ -6038,21 +6038,21 @@
         <v>82</v>
       </c>
       <c r="E213">
-        <f>LEN(A213)</f>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B214" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C214">
@@ -6062,21 +6062,21 @@
         <v>84</v>
       </c>
       <c r="E214">
-        <f>LEN(A214)</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="F214" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B215" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C215">
@@ -6086,21 +6086,21 @@
         <v>86</v>
       </c>
       <c r="E215">
-        <f>LEN(A215)</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="F215" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B216" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C216">
@@ -6110,21 +6110,21 @@
         <v>87</v>
       </c>
       <c r="E216">
-        <f>LEN(A216)</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="F216" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B217" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C217">
@@ -6134,21 +6134,21 @@
         <v>88</v>
       </c>
       <c r="E217">
-        <f>LEN(A217)</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="F217" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B218" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C218">
@@ -6158,21 +6158,21 @@
         <v>90</v>
       </c>
       <c r="E218">
-        <f>LEN(A218)</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="F218" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B219" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C219">
@@ -6182,21 +6182,21 @@
         <v>91</v>
       </c>
       <c r="E219">
-        <f>LEN(A219)</f>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="F219" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B220" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C220">
@@ -6206,21 +6206,21 @@
         <v>92</v>
       </c>
       <c r="E220">
-        <f>LEN(A220)</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F220" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C221">
@@ -6230,21 +6230,21 @@
         <v>93</v>
       </c>
       <c r="E221">
-        <f>LEN(A221)</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F221" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B222" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C222">
@@ -6254,21 +6254,21 @@
         <v>94</v>
       </c>
       <c r="E222">
-        <f>LEN(A222)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="F222" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B223" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C223">
@@ -6278,21 +6278,21 @@
         <v>95</v>
       </c>
       <c r="E223">
-        <f>LEN(A223)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="F223" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B224" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C224">
@@ -6302,21 +6302,21 @@
         <v>95</v>
       </c>
       <c r="E224">
-        <f>LEN(A224)</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="F224" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B225" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C225">
@@ -6326,21 +6326,21 @@
         <v>96</v>
       </c>
       <c r="E225">
-        <f>LEN(A225)</f>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="F225" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B226" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C226">
@@ -6350,21 +6350,21 @@
         <v>97</v>
       </c>
       <c r="E226">
-        <f>LEN(A226)</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="F226" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B227" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C227">
@@ -6374,21 +6374,21 @@
         <v>98</v>
       </c>
       <c r="E227">
-        <f>LEN(A227)</f>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="F227" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B228" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C228">
@@ -6398,21 +6398,21 @@
         <v>98</v>
       </c>
       <c r="E228">
-        <f>LEN(A228)</f>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="F228" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B229" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C229">
@@ -6422,21 +6422,21 @@
         <v>99</v>
       </c>
       <c r="E229">
-        <f>LEN(A229)</f>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="F229" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B230" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C230">
@@ -6446,21 +6446,21 @@
         <v>99</v>
       </c>
       <c r="E230">
-        <f>LEN(A230)</f>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="F230" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B231" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C231">
@@ -6470,21 +6470,21 @@
         <v>100</v>
       </c>
       <c r="E231">
-        <f>LEN(A231)</f>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="F231" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B232" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C232">
@@ -6494,21 +6494,21 @@
         <v>100</v>
       </c>
       <c r="E232">
-        <f>LEN(A232)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="F232" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B233" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C233">
@@ -6518,21 +6518,21 @@
         <v>101</v>
       </c>
       <c r="E233">
-        <f>LEN(A233)</f>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="F233" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B234" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C234">
@@ -6542,21 +6542,21 @@
         <v>101</v>
       </c>
       <c r="E234">
-        <f>LEN(A234)</f>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="F234" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B235" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C235">
@@ -6566,21 +6566,21 @@
         <v>102</v>
       </c>
       <c r="E235">
-        <f>LEN(A235)</f>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="F235" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG</v>
       </c>
       <c r="B236" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>GGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGGG[MGB]</v>
       </c>
       <c r="C236">
@@ -6590,11 +6590,11 @@
         <v>102</v>
       </c>
       <c r="E236">
-        <f>LEN(A236)</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="F236" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
         <v>179</v>
       </c>
       <c r="B237" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTT[MGB]</v>
       </c>
       <c r="C237">
@@ -6613,11 +6613,11 @@
         <v>44</v>
       </c>
       <c r="E237">
-        <f>LEN(A237)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="F237" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6626,7 +6626,7 @@
         <v>180</v>
       </c>
       <c r="B238" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C238">
@@ -6636,11 +6636,11 @@
         <v>47</v>
       </c>
       <c r="E238">
-        <f>LEN(A238)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="F238" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
         <v>181</v>
       </c>
       <c r="B239" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C239">
@@ -6659,11 +6659,11 @@
         <v>49</v>
       </c>
       <c r="E239">
-        <f>LEN(A239)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="F239" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6672,7 +6672,7 @@
         <v>182</v>
       </c>
       <c r="B240" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C240">
@@ -6682,11 +6682,11 @@
         <v>52</v>
       </c>
       <c r="E240">
-        <f>LEN(A240)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F240" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
         <v>183</v>
       </c>
       <c r="B241" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C241">
@@ -6705,11 +6705,11 @@
         <v>54</v>
       </c>
       <c r="E241">
-        <f>LEN(A241)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F241" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6718,7 +6718,7 @@
         <v>184</v>
       </c>
       <c r="B242" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C242">
@@ -6728,11 +6728,11 @@
         <v>55</v>
       </c>
       <c r="E242">
-        <f>LEN(A242)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F242" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
         <v>185</v>
       </c>
       <c r="B243" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C243">
@@ -6751,11 +6751,11 @@
         <v>57</v>
       </c>
       <c r="E243">
-        <f>LEN(A243)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="F243" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
         <v>186</v>
       </c>
       <c r="B244" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C244">
@@ -6774,11 +6774,11 @@
         <v>58</v>
       </c>
       <c r="E244">
-        <f>LEN(A244)</f>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="F244" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
         <v>187</v>
       </c>
       <c r="B245" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C245">
@@ -6797,11 +6797,11 @@
         <v>59</v>
       </c>
       <c r="E245">
-        <f>LEN(A245)</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="F245" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6810,7 +6810,7 @@
         <v>188</v>
       </c>
       <c r="B246" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C246">
@@ -6820,11 +6820,11 @@
         <v>60</v>
       </c>
       <c r="E246">
-        <f>LEN(A246)</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="F246" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6833,7 +6833,7 @@
         <v>189</v>
       </c>
       <c r="B247" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C247">
@@ -6843,11 +6843,11 @@
         <v>61</v>
       </c>
       <c r="E247">
-        <f>LEN(A247)</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="F247" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6856,7 +6856,7 @@
         <v>190</v>
       </c>
       <c r="B248" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C248">
@@ -6866,11 +6866,11 @@
         <v>62</v>
       </c>
       <c r="E248">
-        <f>LEN(A248)</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="F248" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
         <v>191</v>
       </c>
       <c r="B249" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C249">
@@ -6889,11 +6889,11 @@
         <v>63</v>
       </c>
       <c r="E249">
-        <f>LEN(A249)</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="F249" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6902,7 +6902,7 @@
         <v>192</v>
       </c>
       <c r="B250" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C250">
@@ -6912,11 +6912,11 @@
         <v>64</v>
       </c>
       <c r="E250">
-        <f>LEN(A250)</f>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="F250" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6925,7 +6925,7 @@
         <v>193</v>
       </c>
       <c r="B251" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C251">
@@ -6935,11 +6935,11 @@
         <v>64</v>
       </c>
       <c r="E251">
-        <f>LEN(A251)</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F251" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6948,7 +6948,7 @@
         <v>194</v>
       </c>
       <c r="B252" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C252">
@@ -6958,11 +6958,11 @@
         <v>65</v>
       </c>
       <c r="E252">
-        <f>LEN(A252)</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F252" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
         <v>195</v>
       </c>
       <c r="B253" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C253">
@@ -6981,11 +6981,11 @@
         <v>66</v>
       </c>
       <c r="E253">
-        <f>LEN(A253)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="F253" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
         <v>196</v>
       </c>
       <c r="B254" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C254">
@@ -7004,11 +7004,11 @@
         <v>66</v>
       </c>
       <c r="E254">
-        <f>LEN(A254)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="F254" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
         <v>197</v>
       </c>
       <c r="B255" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C255">
@@ -7027,11 +7027,11 @@
         <v>67</v>
       </c>
       <c r="E255">
-        <f>LEN(A255)</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="F255" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7040,7 +7040,7 @@
         <v>198</v>
       </c>
       <c r="B256" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C256">
@@ -7050,11 +7050,11 @@
         <v>67</v>
       </c>
       <c r="E256">
-        <f>LEN(A256)</f>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="F256" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7063,7 +7063,7 @@
         <v>199</v>
       </c>
       <c r="B257" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C257">
@@ -7073,11 +7073,11 @@
         <v>67</v>
       </c>
       <c r="E257">
-        <f>LEN(A257)</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="F257" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7086,7 +7086,7 @@
         <v>200</v>
       </c>
       <c r="B258" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C258">
@@ -7096,11 +7096,11 @@
         <v>68</v>
       </c>
       <c r="E258">
-        <f>LEN(A258)</f>
+        <f t="shared" ref="E258:E267" si="14">LEN(A258)</f>
         <v>31</v>
       </c>
       <c r="F258" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
         <v>201</v>
       </c>
       <c r="B259" t="str">
-        <f t="shared" ref="B259:B267" si="10">_xlfn.CONCAT(A259,"[MGB]")</f>
+        <f t="shared" ref="B259:B267" si="15">_xlfn.CONCAT(A259,"[MGB]")</f>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C259">
@@ -7119,11 +7119,11 @@
         <v>68</v>
       </c>
       <c r="E259">
-        <f>LEN(A259)</f>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="F259" s="2">
-        <f t="shared" ref="F259:F267" si="11">(2 * LEN(A259) - LEN(SUBSTITUTE(A259, "G","")) - LEN(SUBSTITUTE(A259, "C",""))) / LEN(A259)</f>
+        <f t="shared" ref="F259:F267" si="16">(2 * LEN(A259) - LEN(SUBSTITUTE(A259, "G","")) - LEN(SUBSTITUTE(A259, "C",""))) / LEN(A259)</f>
         <v>0</v>
       </c>
     </row>
@@ -7132,7 +7132,7 @@
         <v>202</v>
       </c>
       <c r="B260" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C260">
@@ -7142,11 +7142,11 @@
         <v>69</v>
       </c>
       <c r="E260">
-        <f>LEN(A260)</f>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="F260" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
         <v>203</v>
       </c>
       <c r="B261" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C261">
@@ -7165,11 +7165,11 @@
         <v>69</v>
       </c>
       <c r="E261">
-        <f>LEN(A261)</f>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="F261" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7178,7 +7178,7 @@
         <v>204</v>
       </c>
       <c r="B262" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C262">
@@ -7188,11 +7188,11 @@
         <v>69</v>
       </c>
       <c r="E262">
-        <f>LEN(A262)</f>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="F262" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7201,7 +7201,7 @@
         <v>205</v>
       </c>
       <c r="B263" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C263">
@@ -7211,11 +7211,11 @@
         <v>70</v>
       </c>
       <c r="E263">
-        <f>LEN(A263)</f>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="F263" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
         <v>206</v>
       </c>
       <c r="B264" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C264">
@@ -7234,11 +7234,11 @@
         <v>70</v>
       </c>
       <c r="E264">
-        <f>LEN(A264)</f>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="F264" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7247,7 +7247,7 @@
         <v>207</v>
       </c>
       <c r="B265" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C265">
@@ -7257,11 +7257,11 @@
         <v>70</v>
       </c>
       <c r="E265">
-        <f>LEN(A265)</f>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="F265" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
         <v>208</v>
       </c>
       <c r="B266" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C266">
@@ -7280,11 +7280,11 @@
         <v>70</v>
       </c>
       <c r="E266">
-        <f>LEN(A266)</f>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="F266" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
         <v>209</v>
       </c>
       <c r="B267" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT[MGB]</v>
       </c>
       <c r="C267">
@@ -7303,11 +7303,11 @@
         <v>71</v>
       </c>
       <c r="E267">
-        <f>LEN(A267)</f>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="F267" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
